--- a/Format Lab Result.xlsx
+++ b/Format Lab Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiucheng/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2BD80E-EA46-E349-8979-50F57E1A41A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B696DAA9-BFFF-CF4F-B00F-781653EB29E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{601409D2-94AD-2040-8B45-B65981BDA1FF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{601409D2-94AD-2040-8B45-B65981BDA1FF}"/>
   </bookViews>
   <sheets>
     <sheet name="dx V.S. t" sheetId="5" r:id="rId1"/>
@@ -176,13 +176,13 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -233,8 +233,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Compare</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Total </a:t>
+              <a:t> </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3490,7 +3500,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Total </a:t>
+              <a:t>Compare </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -18010,8 +18020,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Compare</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Total </a:t>
+              <a:t> </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -21012,8 +21032,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Compare</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Total </a:t>
+              <a:t> </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -36859,8 +36889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461A7755-E4F4-3444-9B01-2D92C83B7B98}">
   <dimension ref="A3:O233"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36872,18 +36902,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>2</v>
@@ -36939,10 +36969,10 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>0</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>0.26048179999999999</v>
       </c>
       <c r="C7" s="1"/>
@@ -36969,10 +36999,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>1.6666670000000001E-2</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>0.29650589999999999</v>
       </c>
       <c r="C8" s="1"/>
@@ -36999,10 +37029,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>3.3333330000000001E-2</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>0.34610239999999998</v>
       </c>
       <c r="C9" s="1"/>
@@ -37029,10 +37059,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>0.05</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>0.38357609999999998</v>
       </c>
       <c r="C10" s="1"/>
@@ -37059,10 +37089,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>6.6666669999999997E-2</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>0.41896810000000001</v>
       </c>
       <c r="C11" s="1"/>
@@ -37089,10 +37119,10 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>8.3333329999999997E-2</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>0.46359129999999998</v>
       </c>
       <c r="C12" s="1"/>
@@ -37119,10 +37149,10 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>0.1</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>0.50544670000000003</v>
       </c>
       <c r="C13" s="1"/>
@@ -37149,10 +37179,10 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>0.1166667</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>0.54870260000000004</v>
       </c>
       <c r="C14" s="1"/>
@@ -37179,10 +37209,10 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>0.13333329999999999</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>0.58986890000000003</v>
       </c>
       <c r="C15" s="1"/>
@@ -37209,10 +37239,10 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>0.15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>0.62036709999999995</v>
       </c>
       <c r="C16" s="1"/>
@@ -37239,10 +37269,10 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>0.1666667</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>0.65588049999999998</v>
       </c>
       <c r="C17" s="1"/>
@@ -37269,10 +37299,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>0.1833333</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>0.70924189999999998</v>
       </c>
       <c r="C18" s="1"/>
@@ -37299,10 +37329,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>0.2</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>0.7297901</v>
       </c>
       <c r="C19" s="1"/>
@@ -37329,10 +37359,10 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>0.21666669999999999</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>0.76604919999999999</v>
       </c>
       <c r="C20" s="1"/>
@@ -37359,10 +37389,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>0.23333329999999999</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>0.80017150000000004</v>
       </c>
       <c r="C21" s="1"/>
@@ -37389,10 +37419,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>0.25</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>0.83578520000000001</v>
       </c>
       <c r="C22" s="1"/>
@@ -37419,10 +37449,10 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>0.26666669999999998</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>0.87136420000000003</v>
       </c>
       <c r="C23" s="1"/>
@@ -37449,10 +37479,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>0.28333330000000001</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>0.90412530000000002</v>
       </c>
       <c r="C24" s="1"/>
@@ -37479,10 +37509,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>0.3</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>0.94262310000000005</v>
       </c>
       <c r="C25" s="1"/>
@@ -37509,10 +37539,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>0.31666670000000002</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>0.97468549999999998</v>
       </c>
       <c r="C26" s="1"/>
@@ -37539,10 +37569,10 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>0.3333333</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <v>1.0096419999999999</v>
       </c>
       <c r="C27" s="1"/>
@@ -37569,10 +37599,10 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>0.35</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="4">
         <v>1.0481799999999999</v>
       </c>
       <c r="C28" s="1"/>
@@ -37599,10 +37629,10 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>0.36666670000000001</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="4">
         <v>1.0803259999999999</v>
       </c>
       <c r="C29" s="1"/>
@@ -37629,10 +37659,10 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>0.38333329999999999</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="4">
         <v>1.1125020000000001</v>
       </c>
       <c r="C30" s="1"/>
@@ -37658,10 +37688,10 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>0.4</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="4">
         <v>1.1481790000000001</v>
       </c>
       <c r="C31" s="1"/>
@@ -37687,10 +37717,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>0.4166667</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="4">
         <v>1.181824</v>
       </c>
       <c r="C32" s="1"/>
@@ -37716,10 +37746,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>0.43333329999999998</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="4">
         <v>1.213975</v>
       </c>
       <c r="C33" s="1"/>
@@ -37745,10 +37775,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>0.45</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="4">
         <v>1.2490520000000001</v>
       </c>
       <c r="C34" s="1"/>
@@ -37774,10 +37804,10 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>0.46666669999999999</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="4">
         <v>1.2805340000000001</v>
       </c>
       <c r="C35" s="1"/>
@@ -37803,10 +37833,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>0.48333330000000002</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="4">
         <v>1.3314060000000001</v>
       </c>
       <c r="C36" s="1"/>
@@ -37832,10 +37862,10 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>0.5</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="4">
         <v>1.371497</v>
       </c>
       <c r="C37" s="1"/>
@@ -37861,10 +37891,10 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>0.51666670000000003</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="4">
         <v>1.403816</v>
       </c>
       <c r="C38" s="1"/>
@@ -37890,10 +37920,10 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>0.53333330000000001</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="4">
         <v>1.4432290000000001</v>
       </c>
       <c r="C39" s="1"/>
@@ -37919,10 +37949,10 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="4">
         <v>1.4769669999999999</v>
       </c>
       <c r="C40" s="1"/>
@@ -37948,10 +37978,10 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>0.56666669999999997</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="4">
         <v>1.5099990000000001</v>
       </c>
       <c r="C41" s="1"/>
@@ -37977,10 +38007,10 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="4">
         <v>0.58333330000000005</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="4">
         <v>1.5523579999999999</v>
       </c>
       <c r="C42" s="1"/>
@@ -38006,10 +38036,10 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="A43" s="4">
         <v>0.6</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="4">
         <v>1.5918810000000001</v>
       </c>
       <c r="C43" s="1"/>
@@ -38035,10 +38065,10 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="4">
         <v>0.61666670000000001</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="4">
         <v>1.637097</v>
       </c>
       <c r="C44" s="1"/>
@@ -38064,10 +38094,10 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45" s="4">
         <v>0.63333329999999999</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="4">
         <v>1.6787780000000001</v>
       </c>
       <c r="C45" s="1"/>
@@ -38093,10 +38123,10 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="4">
         <v>0.65</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="4">
         <v>1.7247699999999999</v>
       </c>
       <c r="C46" s="1"/>
@@ -38122,10 +38152,10 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47" s="4">
         <v>0.66666669999999995</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="4">
         <v>1.767933</v>
       </c>
       <c r="C47" s="1"/>
@@ -38151,10 +38181,10 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>0.68333330000000003</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="4">
         <v>1.8104070000000001</v>
       </c>
       <c r="C48" s="1"/>
@@ -38180,10 +38210,10 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+      <c r="A49" s="4">
         <v>0.7</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="4">
         <v>1.8486</v>
       </c>
       <c r="C49" s="1"/>
@@ -39746,7 +39776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A56EA31-C221-014A-AB1B-BE6E6AA79FE0}">
   <dimension ref="A3:O233"/>
   <sheetViews>
-    <sheetView topLeftCell="G25" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H3" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
@@ -39757,18 +39787,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>2</v>
@@ -39824,10 +39854,10 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>0</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>0.25340839999999998</v>
       </c>
       <c r="C7" s="1"/>
@@ -39854,10 +39884,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>1.6666670000000001E-2</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>0.31998959999999999</v>
       </c>
       <c r="C8" s="1"/>
@@ -39884,10 +39914,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>3.3333330000000001E-2</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>0.38525229999999999</v>
       </c>
       <c r="C9" s="1"/>
@@ -39914,10 +39944,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>0.05</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>0.44613330000000001</v>
       </c>
       <c r="C10" s="1"/>
@@ -39944,10 +39974,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>6.6666669999999997E-2</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>0.50207049999999998</v>
       </c>
       <c r="C11" s="1"/>
@@ -39974,10 +40004,10 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>8.3333329999999997E-2</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>0.5558362</v>
       </c>
       <c r="C12" s="1"/>
@@ -40004,10 +40034,10 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>0.1</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>0.60392270000000003</v>
       </c>
       <c r="C13" s="1"/>
@@ -40034,10 +40064,10 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>0.1166667</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>0.64985389999999998</v>
       </c>
       <c r="C14" s="1"/>
@@ -40064,10 +40094,10 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>0.13333329999999999</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>0.69723170000000001</v>
       </c>
       <c r="C15" s="1"/>
@@ -40094,10 +40124,10 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>0.15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>0.73092869999999999</v>
       </c>
       <c r="C16" s="1"/>
@@ -40124,10 +40154,10 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>0.1666667</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>0.76412190000000002</v>
       </c>
       <c r="C17" s="1"/>
@@ -40154,10 +40184,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>0.1833333</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>0.78999359999999996</v>
       </c>
       <c r="C18" s="1"/>
@@ -40184,10 +40214,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>0.2</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>0.82082719999999998</v>
       </c>
       <c r="C19" s="1"/>
@@ -40214,10 +40244,10 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>0.21666669999999999</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>0.84605430000000004</v>
       </c>
       <c r="C20" s="1"/>
@@ -40244,10 +40274,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>0.23333329999999999</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>0.8697916</v>
       </c>
       <c r="C21" s="1"/>
@@ -40274,10 +40304,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>0.25</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>0.88783529999999999</v>
       </c>
       <c r="C22" s="1"/>
@@ -40304,10 +40334,10 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>0.26666669999999998</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>0.90584600000000004</v>
       </c>
       <c r="C23" s="1"/>
@@ -40334,10 +40364,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>0.28333330000000001</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>0.91755880000000001</v>
       </c>
       <c r="C24" s="1"/>
@@ -40364,10 +40394,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>0.3</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>0.92770180000000002</v>
       </c>
       <c r="C25" s="1"/>
@@ -40394,10 +40424,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>0.31666670000000002</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>0.93572860000000002</v>
       </c>
       <c r="C26" s="1"/>
@@ -40424,10 +40454,10 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>0.3333333</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <v>0.94095169999999995</v>
       </c>
       <c r="C27" s="1"/>
@@ -40454,10 +40484,10 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>0.35</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="4">
         <v>0.94189199999999995</v>
       </c>
       <c r="C28" s="1"/>
@@ -40484,10 +40514,10 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>0.36666670000000001</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="4">
         <v>0.94064859999999995</v>
       </c>
       <c r="C29" s="1"/>
@@ -40514,10 +40544,10 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>0.38333329999999999</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="4">
         <v>0.93728560000000005</v>
       </c>
       <c r="C30" s="1"/>
@@ -40543,10 +40573,10 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>0.4</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="4">
         <v>0.93027570000000004</v>
       </c>
       <c r="C31" s="1"/>
@@ -40572,10 +40602,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>0.4166667</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="4">
         <v>0.9212823</v>
       </c>
       <c r="C32" s="1"/>
@@ -40601,10 +40631,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>0.43333329999999998</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="4">
         <v>0.91071340000000001</v>
       </c>
       <c r="C33" s="1"/>
@@ -40630,10 +40660,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>0.45</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="4">
         <v>0.89738399999999996</v>
       </c>
       <c r="C34" s="1"/>
@@ -40659,10 +40689,10 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>0.46666669999999999</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="4">
         <v>0.88612939999999996</v>
       </c>
       <c r="C35" s="1"/>
@@ -40688,10 +40718,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>0.48333330000000002</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="4">
         <v>0.85647810000000002</v>
       </c>
       <c r="C36" s="1"/>
@@ -40717,10 +40747,10 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>0.5</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="4">
         <v>0.83175089999999996</v>
       </c>
       <c r="C37" s="1"/>
@@ -40746,10 +40776,10 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>0.51666670000000003</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="4">
         <v>0.80473059999999996</v>
       </c>
       <c r="C38" s="1"/>
@@ -40775,10 +40805,10 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>0.53333330000000001</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="4">
         <v>0.77720440000000002</v>
       </c>
       <c r="C39" s="1"/>
@@ -40804,10 +40834,10 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="4">
         <v>0.7452588</v>
       </c>
       <c r="C40" s="1"/>
@@ -40833,10 +40863,10 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>0.56666669999999997</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="4">
         <v>0.70973070000000005</v>
       </c>
       <c r="C41" s="1"/>
@@ -40862,10 +40892,10 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="4">
         <v>0.58333330000000005</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="4">
         <v>0.6706704</v>
       </c>
       <c r="C42" s="1"/>
@@ -40891,10 +40921,10 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="A43" s="4">
         <v>0.6</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="4">
         <v>0.62811589999999995</v>
       </c>
       <c r="C43" s="1"/>
@@ -40920,10 +40950,10 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="4">
         <v>0.61666670000000001</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="4">
         <v>0.58408490000000002</v>
       </c>
       <c r="C44" s="1"/>
@@ -40949,10 +40979,10 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45" s="4">
         <v>0.63333329999999999</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="4">
         <v>0.53432570000000001</v>
       </c>
       <c r="C45" s="1"/>
@@ -40978,10 +41008,10 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="4">
         <v>0.65</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="4">
         <v>0.48321969999999997</v>
       </c>
       <c r="C46" s="1"/>
@@ -41007,10 +41037,10 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47" s="4">
         <v>0.66666669999999995</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="4">
         <v>0.42927989999999999</v>
       </c>
       <c r="C47" s="1"/>
@@ -41036,10 +41066,10 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>0.68333330000000003</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="4">
         <v>0.37093880000000001</v>
       </c>
       <c r="C48" s="1"/>
@@ -41065,10 +41095,10 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+      <c r="A49" s="4">
         <v>0.7</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="4">
         <v>0.30552580000000001</v>
       </c>
       <c r="C49" s="1"/>
@@ -42631,7 +42661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C87EDB6-C669-EA4E-B56E-03421DD9E6D7}">
   <dimension ref="A3:O233"/>
   <sheetViews>
-    <sheetView topLeftCell="G6" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
@@ -42644,18 +42674,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>2</v>
@@ -42711,10 +42741,10 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>8.3333350000000007E-3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>2.1614455677108864</v>
       </c>
       <c r="C7" s="1"/>
@@ -42741,10 +42771,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>2.9757911903164755</v>
       </c>
       <c r="C8" s="1"/>
@@ -42771,10 +42801,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>4.1666665000000006E-2</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>2.2484215503156895</v>
       </c>
       <c r="C9" s="1"/>
@@ -42801,10 +42831,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>5.8333335E-2</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>2.1235195752960876</v>
       </c>
       <c r="C10" s="1"/>
@@ -42831,10 +42861,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>2.6773930709572267</v>
       </c>
       <c r="C11" s="1"/>
@@ -42861,10 +42891,10 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>9.1666665000000008E-2</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>2.5113234977353018</v>
       </c>
       <c r="C12" s="1"/>
@@ -42891,10 +42921,10 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>0.10833334999999999</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>2.5953488093023833</v>
       </c>
       <c r="C13" s="1"/>
@@ -42921,10 +42951,10 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>0.125</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>2.4699878799515207</v>
       </c>
       <c r="C14" s="1"/>
@@ -42951,10 +42981,10 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>0.14166665000000001</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>1.8298883402233139</v>
       </c>
       <c r="C15" s="1"/>
@@ -42981,10 +43011,10 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>0.15833334999999998</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>2.1307997384005239</v>
       </c>
       <c r="C16" s="1"/>
@@ -43011,10 +43041,10 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>0.17499999999999999</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>3.2016968067872265</v>
       </c>
       <c r="C17" s="1"/>
@@ -43041,10 +43071,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>0.19166664999999999</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>1.2328895342209321</v>
       </c>
       <c r="C18" s="1"/>
@@ -43071,10 +43101,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>0.20833335</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>2.1755416489167043</v>
       </c>
       <c r="C19" s="1"/>
@@ -43101,10 +43131,10 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>0.22499999999999998</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>2.04734618938476</v>
       </c>
       <c r="C20" s="1"/>
@@ -43131,10 +43161,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>0.24166664999999998</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>2.1368177263645447</v>
       </c>
       <c r="C21" s="1"/>
@@ -43161,10 +43191,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>0.25833335000000002</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>2.1347357305285435</v>
       </c>
       <c r="C22" s="1"/>
@@ -43191,10 +43221,10 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>0.27500000000000002</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>1.9656738626954464</v>
       </c>
       <c r="C23" s="1"/>
@@ -43221,10 +43251,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>0.29166665000000003</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>2.309863380273244</v>
       </c>
       <c r="C24" s="1"/>
@@ -43251,10 +43281,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>0.30833335000000001</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>1.9237401525196871</v>
       </c>
       <c r="C25" s="1"/>
@@ -43281,10 +43311,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>0.32500000000000001</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>2.097398389593558</v>
       </c>
       <c r="C26" s="1"/>
@@ -43311,10 +43341,10 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>0.34166664999999996</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <v>2.3122753754492495</v>
       </c>
       <c r="C27" s="1"/>
@@ -43341,10 +43371,10 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>0.35833334999999999</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="4">
         <v>1.9287561424877115</v>
       </c>
       <c r="C28" s="1"/>
@@ -43371,10 +43401,10 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>0.375</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="4">
         <v>1.9305677222709041</v>
       </c>
       <c r="C29" s="1"/>
@@ -43401,10 +43431,10 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>0.39166665000000001</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="4">
         <v>2.1406157187685557</v>
       </c>
       <c r="C30" s="1"/>
@@ -43430,10 +43460,10 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>0.40833335000000004</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="4">
         <v>2.0186959626080729</v>
       </c>
       <c r="C31" s="1"/>
@@ -43459,10 +43489,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>0.42499999999999999</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="4">
         <v>1.9290677162708703</v>
       </c>
       <c r="C32" s="1"/>
@@ -43488,10 +43518,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>0.44166664999999999</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="4">
         <v>2.1046157907684155</v>
       </c>
       <c r="C33" s="1"/>
@@ -43517,10 +43547,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>0.45833334999999997</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="4">
         <v>1.8889162221675586</v>
       </c>
       <c r="C34" s="1"/>
@@ -43546,10 +43576,10 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>0.47499999999999998</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="4">
         <v>3.0523322093288332</v>
       </c>
       <c r="C35" s="1"/>
@@ -43575,10 +43605,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>0.49166664999999998</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="4">
         <v>2.4054551890896176</v>
       </c>
       <c r="C36" s="1"/>
@@ -43604,10 +43634,10 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>0.50833335000000002</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="4">
         <v>1.9391361217277518</v>
       </c>
       <c r="C37" s="1"/>
@@ -43633,10 +43663,10 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>0.52500000000000002</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="4">
         <v>2.3647894591578487</v>
       </c>
       <c r="C38" s="1"/>
@@ -43662,10 +43692,10 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>0.54166665000000003</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="4">
         <v>2.0242759514480824</v>
       </c>
       <c r="C39" s="1"/>
@@ -43691,10 +43721,10 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>0.55833335000000006</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="4">
         <v>1.9819160361679471</v>
       </c>
       <c r="C40" s="1"/>
@@ -43720,10 +43750,10 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>0.57499999999999996</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="4">
         <v>2.5415501662006403</v>
       </c>
       <c r="C41" s="1"/>
@@ -43749,10 +43779,10 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="4">
         <v>0.59166665000000007</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="4">
         <v>2.3713752572495084</v>
       </c>
       <c r="C42" s="1"/>
@@ -43778,10 +43808,10 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="A43" s="4">
         <v>0.60833334999999999</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="4">
         <v>2.7129545740908414</v>
       </c>
       <c r="C43" s="1"/>
@@ -43807,10 +43837,10 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="4">
         <v>0.625</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="4">
         <v>2.5008700034800224</v>
       </c>
       <c r="C44" s="1"/>
@@ -43836,10 +43866,10 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45" s="4">
         <v>0.64166665000000001</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="4">
         <v>2.759514480971021</v>
       </c>
       <c r="C45" s="1"/>
@@ -43865,10 +43895,10 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="4">
         <v>0.65833334999999993</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="4">
         <v>2.589774820450375</v>
       </c>
       <c r="C46" s="1"/>
@@ -43894,10 +43924,10 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47" s="4">
         <v>0.67500000000000004</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="4">
         <v>2.5484501938007691</v>
       </c>
       <c r="C47" s="1"/>
@@ -43923,10 +43953,10 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>0.69166664999999994</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="4">
         <v>2.291575416849172</v>
       </c>
       <c r="C48" s="1"/>
@@ -43952,10 +43982,10 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+      <c r="A49" s="4">
         <v>0.7</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="4">
         <v>1.8486</v>
       </c>
       <c r="C49" s="1"/>
@@ -45486,8 +45516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E4BC96-86D1-2143-B2F9-26F0F93E587C}">
   <dimension ref="A3:O233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45496,18 +45526,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>2</v>
@@ -45563,10 +45593,10 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>8.3333350000000007E-3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>3.9948712010257599</v>
       </c>
       <c r="C7" s="1"/>
@@ -45593,10 +45623,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>3.9157635663054271</v>
       </c>
       <c r="C8" s="1"/>
@@ -45623,10 +45653,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>4.1666665000000006E-2</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>3.6528592694281468</v>
       </c>
       <c r="C9" s="1"/>
@@ -45653,10 +45683,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>5.8333335E-2</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>3.3562313287537333</v>
       </c>
       <c r="C10" s="1"/>
@@ -45683,10 +45713,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>3.2259432903773178</v>
       </c>
       <c r="C11" s="1"/>
@@ -45713,10 +45743,10 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>9.1666665000000008E-2</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>2.885189422962116</v>
       </c>
       <c r="C12" s="1"/>
@@ -45743,10 +45773,10 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>0.10833334999999999</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>2.7558664882670216</v>
       </c>
       <c r="C13" s="1"/>
@@ -45773,10 +45803,10 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>0.125</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>2.842679370717486</v>
       </c>
       <c r="C14" s="1"/>
@@ -45803,10 +45833,10 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>0.14166665000000001</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>2.0218159563680853</v>
       </c>
       <c r="C15" s="1"/>
@@ -45833,10 +45863,10 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>0.15833334999999998</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>1.9915880168239677</v>
       </c>
       <c r="C16" s="1"/>
@@ -45863,10 +45893,10 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>0.17499999999999999</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>1.5523082092328331</v>
       </c>
       <c r="C17" s="1"/>
@@ -45893,10 +45923,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>0.19166664999999999</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>1.8500122999754003</v>
       </c>
       <c r="C18" s="1"/>
@@ -45923,10 +45953,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>0.20833335</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>1.51362297275406</v>
       </c>
       <c r="C19" s="1"/>
@@ -45953,10 +45983,10 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>0.22499999999999998</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>1.4242436969747854</v>
       </c>
       <c r="C20" s="1"/>
@@ -45983,10 +46013,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>0.24166664999999998</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>1.0826198347603297</v>
       </c>
       <c r="C21" s="1"/>
@@ -46013,10 +46043,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>0.25833335000000002</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>1.0806398387203267</v>
       </c>
       <c r="C22" s="1"/>
@@ -46043,10 +46073,10 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>0.27500000000000002</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>0.70277081108324102</v>
       </c>
       <c r="C23" s="1"/>
@@ -46073,10 +46103,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>0.29166665000000003</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>0.60857878284243583</v>
       </c>
       <c r="C24" s="1"/>
@@ -46103,10 +46133,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>0.30833335000000001</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>0.48160703678592548</v>
       </c>
       <c r="C25" s="1"/>
@@ -46133,10 +46163,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>0.32500000000000001</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>0.31338725354901015</v>
       </c>
       <c r="C26" s="1"/>
@@ -46163,10 +46193,10 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>0.34166664999999996</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <v>5.6417887164226042E-2</v>
       </c>
       <c r="C27" s="1"/>
@@ -46193,10 +46223,10 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>0.35833334999999999</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="4">
         <v>-7.4603850792298601E-2</v>
       </c>
       <c r="C28" s="1"/>
@@ -46223,10 +46253,10 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>0.375</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="4">
         <v>-0.20178080712322241</v>
       </c>
       <c r="C29" s="1"/>
@@ -46253,10 +46283,10 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>0.39166665000000001</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="4">
         <v>-0.42059315881368231</v>
       </c>
       <c r="C30" s="1"/>
@@ -46282,10 +46312,10 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>0.40833335000000004</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="4">
         <v>-0.5396029207941615</v>
       </c>
       <c r="C31" s="1"/>
@@ -46311,10 +46341,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>0.42499999999999999</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="4">
         <v>-0.63413653654614666</v>
       </c>
       <c r="C32" s="1"/>
@@ -46340,10 +46370,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>0.44166664999999999</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="4">
         <v>-0.7997624004752002</v>
       </c>
       <c r="C33" s="1"/>
@@ -46369,10 +46399,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>0.45833334999999997</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="4">
         <v>-0.67527464945070215</v>
       </c>
       <c r="C34" s="1"/>
@@ -46398,10 +46428,10 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>0.47499999999999998</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="4">
         <v>-1.7790851163404582</v>
       </c>
       <c r="C35" s="1"/>
@@ -46427,10 +46457,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>0.49166664999999998</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="4">
         <v>-1.4836290327419399</v>
       </c>
       <c r="C36" s="1"/>
@@ -46456,10 +46486,10 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>0.50833335000000002</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="4">
         <v>-1.6212147575704814</v>
       </c>
       <c r="C37" s="1"/>
@@ -46485,10 +46515,10 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>0.52500000000000002</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="4">
         <v>-1.6515786063144244</v>
       </c>
       <c r="C38" s="1"/>
@@ -46514,10 +46544,10 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>0.54166665000000003</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="4">
         <v>-1.916732166535664</v>
       </c>
       <c r="C39" s="1"/>
@@ -46543,10 +46573,10 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>0.55833335000000006</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="4">
         <v>-2.1316817366365335</v>
       </c>
       <c r="C40" s="1"/>
@@ -46572,10 +46602,10 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>0.57499999999999996</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="4">
         <v>-2.3436273745094889</v>
       </c>
       <c r="C41" s="1"/>
@@ -46601,10 +46631,10 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="4">
         <v>0.59166665000000007</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="4">
         <v>-2.553264893470228</v>
       </c>
       <c r="C42" s="1"/>
@@ -46630,10 +46660,10 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="A43" s="4">
         <v>0.60833334999999999</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="4">
         <v>-2.6418547162905579</v>
       </c>
       <c r="C43" s="1"/>
@@ -46659,10 +46689,10 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="4">
         <v>0.625</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="4">
         <v>-2.9855639422557734</v>
       </c>
       <c r="C44" s="1"/>
@@ -46688,10 +46718,10 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45" s="4">
         <v>0.64166665000000001</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="4">
         <v>-3.0663538672922614</v>
       </c>
       <c r="C45" s="1"/>
@@ -46717,10 +46747,10 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="4">
         <v>0.65833334999999993</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="4">
         <v>-3.2363815272369592</v>
       </c>
       <c r="C46" s="1"/>
@@ -46746,10 +46776,10 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47" s="4">
         <v>0.67500000000000004</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="4">
         <v>-3.5004800019199882</v>
       </c>
       <c r="C47" s="1"/>
@@ -46775,10 +46805,10 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>0.69166664999999994</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="4">
         <v>-3.9247721504557171</v>
       </c>
       <c r="C48" s="1"/>
@@ -48341,10 +48371,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -51886,10 +51916,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>

--- a/Format Lab Result.xlsx
+++ b/Format Lab Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiucheng/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B696DAA9-BFFF-CF4F-B00F-781653EB29E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6103C2-6DDF-F54C-BF3E-80C189732A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{601409D2-94AD-2040-8B45-B65981BDA1FF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{601409D2-94AD-2040-8B45-B65981BDA1FF}"/>
   </bookViews>
   <sheets>
     <sheet name="dx V.S. t" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="27">
   <si>
     <t>t</t>
   </si>
@@ -79,13 +79,7 @@
     <t>vx V.S. t</t>
   </si>
   <si>
-    <t>vx</t>
-  </si>
-  <si>
     <t>vy V.S. t</t>
-  </si>
-  <si>
-    <t>vy</t>
   </si>
   <si>
     <t>Compare( to the Projectile lab)</t>
@@ -94,20 +88,47 @@
     <t>dx V.S. t</t>
   </si>
   <si>
-    <t>dx</t>
-  </si>
-  <si>
     <t>dy V.S. t</t>
   </si>
   <si>
-    <t>dy</t>
+    <t>t [s]</t>
+  </si>
+  <si>
+    <t>dx [m]</t>
+  </si>
+  <si>
+    <t>∆dx [m]</t>
+  </si>
+  <si>
+    <t>Worst Fit 1</t>
+  </si>
+  <si>
+    <t>Worst Fit 2</t>
+  </si>
+  <si>
+    <t>∆dy [m]</t>
+  </si>
+  <si>
+    <t>dy [m]</t>
+  </si>
+  <si>
+    <t>vx [m/s]</t>
+  </si>
+  <si>
+    <t>∆vx [m/s]</t>
+  </si>
+  <si>
+    <t>vy [m/s]</t>
+  </si>
+  <si>
+    <t>∆vy [m/s]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,6 +140,13 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -171,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -183,6 +211,7 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,6 +427,44 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5.000000000000001E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'dx V.S. t'!$A$7:$A$233</c:f>
@@ -678,6 +745,262 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5242-5D49-A933-60FC3BE45185}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dx V.S. t'!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.4274496937882762E-2"/>
+                  <c:y val="0.24336870934611435"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('dx V.S. t'!$A$7,'dx V.S. t'!$A$49)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'dx V.S. t'!$C$10:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8173-D043-979F-21B52B6C0AB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dx V.S. t'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.2718941382327216E-2"/>
+                  <c:y val="0.28217189719264146"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('dx V.S. t'!$A$7,'dx V.S. t'!$A$49)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'dx V.S. t'!$C$14:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8173-D043-979F-21B52B6C0AB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3621,8 +3944,423 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.8475284339457571E-2"/>
-                  <c:y val="-0.29448563524154076"/>
+                  <c:x val="-0.30406188148612928"/>
+                  <c:y val="0.20411802464909279"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5.000000000000001E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'vy V.S. t'!$A$7:$A$233</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="227"/>
+                <c:pt idx="0">
+                  <c:v>8.3333350000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666665000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1666665000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10833334999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14166665000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15833334999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19166664999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20833335</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24166664999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25833335000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.29166665000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.30833335000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.34166664999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.35833334999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.39166665000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.40833335000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.44166664999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.45833334999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.49166664999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.50833335000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.54166665000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.55833335000000006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.59166665000000007</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.60833334999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.64166665000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.65833334999999993</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.69166664999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vy V.S. t'!$B$7:$B$233</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="227"/>
+                <c:pt idx="0">
+                  <c:v>3.9948712010257599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9157635663054271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6528592694281468</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3562313287537333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2259432903773178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.885189422962116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7558664882670216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.842679370717486</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0218159563680853</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9915880168239677</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5523082092328331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8500122999754003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.51362297275406</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4242436969747854</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0826198347603297</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0806398387203267</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70277081108324102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.60857878284243583</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.48160703678592548</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.31338725354901015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.6417887164226042E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7.4603850792298601E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.20178080712322241</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.42059315881368231</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.5396029207941615</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.63413653654614666</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.7997624004752002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.67527464945070215</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.7790851163404582</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.4836290327419399</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.6212147575704814</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.6515786063144244</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.916732166535664</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.1316817366365335</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.3436273745094889</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.553264893470228</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.6418547162905579</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.9855639422557734</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.0663538672922614</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3.2363815272369592</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.5004800019199882</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.9247721504557171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A822-C342-9939-17B7C8479630}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vy V.S. t'!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Worst Fit 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.5561879200124884E-5"/>
+                  <c:y val="-0.47196208490243069"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3656,134 +4394,14 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'vy V.S. t'!$A$7:$A$233</c:f>
+              <c:f>('vy V.S. t'!$A$7,'vy V.S. t'!$A$48)</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="227"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>8.3333350000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.1666665000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.8333335E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.1666665000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.10833334999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.14166665000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.15833334999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.17499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.19166664999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.20833335</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.22499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.24166664999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25833335000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.27500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.29166665000000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.30833335000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.32500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.34166664999999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.35833334999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.39166665000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.40833335000000004</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.42499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.44166664999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.45833334999999997</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.47499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.49166664999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.50833335000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.52500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.54166665000000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.55833335000000006</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.57499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.59166665000000007</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.60833334999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.64166665000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.65833334999999993</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.67500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="41">
                   <c:v>0.69166664999999994</c:v>
                 </c:pt>
               </c:numCache>
@@ -3791,135 +4409,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'vy V.S. t'!$B$7:$B$233</c:f>
+              <c:f>'vy V.S. t'!$C$10:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="227"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.9948712010257599</c:v>
+                  <c:v>3.3948712010257598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9157635663054271</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6528592694281468</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3562313287537333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2259432903773178</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.885189422962116</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.7558664882670216</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.842679370717486</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.0218159563680853</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9915880168239677</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5523082092328331</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.8500122999754003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.51362297275406</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4242436969747854</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0826198347603297</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0806398387203267</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.70277081108324102</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.60857878284243583</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.48160703678592548</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.31338725354901015</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.6417887164226042E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-7.4603850792298601E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.20178080712322241</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.42059315881368231</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.5396029207941615</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.63413653654614666</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.7997624004752002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.67527464945070215</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-1.7790851163404582</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-1.4836290327419399</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-1.6212147575704814</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1.6515786063144244</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1.916732166535664</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-2.1316817366365335</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-2.3436273745094889</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-2.553264893470228</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-2.6418547162905579</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-2.9855639422557734</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-3.0663538672922614</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-3.2363815272369592</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-3.5004800019199882</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-3.9247721504557171</c:v>
+                  <c:v>-3.3247721504557171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3927,7 +4425,144 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A822-C342-9939-17B7C8479630}"/>
+              <c16:uniqueId val="{00000002-9931-BF4E-8FF3-4280CF3E78C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vy V.S. t'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Worst Fit 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.5561879200124884E-5"/>
+                  <c:y val="-0.43479031153714481"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('vy V.S. t'!$A$7,'vy V.S. t'!$A$48)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.3333350000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69166664999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vy V.S. t'!$C$14:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.1948712010257596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.3247721504557175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9931-BF4E-8FF3-4280CF3E78C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4250,6 +4885,30 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Test1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4289,10 +4948,10 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'vy V.S. t'!$F$3:$F$5</c:f>
+              <c:f>'vy V.S. t'!$F$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="2">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>Test1</c:v>
                 </c:pt>
               </c:strCache>
@@ -4399,6 +5058,44 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5.000000000000001E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'vy V.S. t'!$E$7:$E$72</c:f>
@@ -4811,6 +5508,280 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A03E-1945-93C1-9D345AA19B46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vy V.S. t'!$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Worst Fit 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.9415059189892099E-2"/>
+                  <c:y val="-0.5738997372991046"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('vy V.S. t'!$E$7,'vy V.S. t'!$E$71)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.266667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vy V.S. t'!$G$10:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.269471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.7899179999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3DE1-D448-B644-EF7EFF20544E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vy V.S. t'!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Worst Fit 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.8939073715317971E-2"/>
+                  <c:y val="-0.56203874208505045"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('vy V.S. t'!$E$7,'vy V.S. t'!$E$71)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.266667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vy V.S. t'!$G$14:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.2694709999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.2899180000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3DE1-D448-B644-EF7EFF20544E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5013,6 +5984,30 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5162,6 +6157,44 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5.000000000000001E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'vy V.S. t'!$I$7:$I$102</c:f>
@@ -5760,6 +6793,280 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EAE9-A44C-AB76-6092FC9D90CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vy V.S. t'!$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Worst Fit 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.160673665791776E-2"/>
+                  <c:y val="-0.50690288713910758"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('vy V.S. t'!$I$7,'vy V.S. t'!$I$104)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.23333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vy V.S. t'!$K$10:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-0.22482659999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.25284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F77D-7F4E-9FCB-EC641D7AEF7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vy V.S. t'!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Worst Fit 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.8223860978718475E-2"/>
+                  <c:y val="-0.66950845838905038"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('vy V.S. t'!$I$7,'vy V.S. t'!$I$104)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.23333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vy V.S. t'!$K$14:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.5751733999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.75284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F77D-7F4E-9FCB-EC641D7AEF7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5962,6 +7269,30 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6111,6 +7442,44 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5.000000000000001E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'vy V.S. t'!$M$7:$M$72</c:f>
@@ -6529,6 +7898,280 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-CB1B-B34F-AE87-E1B0ED01C041}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vy V.S. t'!$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Worst Fit 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.0303256592129959E-2"/>
+                  <c:y val="-0.43458785530574406"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('vy V.S. t'!$M$7,'vy V.S. t'!$M$74)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.266667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vy V.S. t'!$O$10:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.68878899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.8220590000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-940C-194F-9E53-1E774CE8EDA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vy V.S. t'!$O$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Worst Fit 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.7423041632084585E-2"/>
+                  <c:y val="-0.56609740950701548"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('vy V.S. t'!$M$7,'vy V.S. t'!$M$74)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.266667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vy V.S. t'!$O$14:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.788789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0220590000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-940C-194F-9E53-1E774CE8EDA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10471,6 +12114,44 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.15000000000000002"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'dx V.S. t'!$E$7:$E$72</c:f>
@@ -16433,6 +18114,44 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.15000000000000002"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'dx V.S. t'!$I$7:$I$102</c:f>
@@ -17382,6 +19101,44 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.15000000000000002"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'dx V.S. t'!$M$7:$M$72</c:f>
@@ -36889,8 +38646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461A7755-E4F4-3444-9B01-2D92C83B7B98}">
   <dimension ref="A3:O233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView topLeftCell="L8" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C18" sqref="C8:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36903,14 +38660,14 @@
   <sheetData>
     <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -36932,40 +38689,40 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -36975,12 +38732,17 @@
       <c r="B7" s="4">
         <v>0.26048179999999999</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>0.05</v>
+      </c>
       <c r="E7" s="1">
         <v>0.1833333</v>
       </c>
       <c r="F7" s="1">
         <v>1.7199310000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.15</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1">
@@ -36989,13 +38751,18 @@
       <c r="J7" s="1">
         <v>1.7295780000000001</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>0.15</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
         <v>0.13333329999999999</v>
       </c>
       <c r="N7" s="1">
         <v>0.93013129999999999</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -37027,6 +38794,7 @@
       <c r="N8" s="1">
         <v>1.0281530000000001</v>
       </c>
+      <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
@@ -39776,8 +41544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A56EA31-C221-014A-AB1B-BE6E6AA79FE0}">
   <dimension ref="A3:O233"/>
   <sheetViews>
-    <sheetView topLeftCell="H3" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39788,14 +41556,14 @@
   <sheetData>
     <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -39817,40 +41585,40 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -39860,12 +41628,17 @@
       <c r="B7" s="4">
         <v>0.25340839999999998</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="7">
+        <v>0.05</v>
+      </c>
       <c r="E7" s="1">
         <v>0.1833333</v>
       </c>
       <c r="F7" s="1">
         <v>0.97892679999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.05</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1">
@@ -39874,13 +41647,18 @@
       <c r="J7" s="1">
         <v>0.95586629999999995</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>0.05</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
         <v>0.13333329999999999</v>
       </c>
       <c r="N7" s="1">
         <v>0.88698829999999995</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -42661,8 +44439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C87EDB6-C669-EA4E-B56E-03421DD9E6D7}">
   <dimension ref="A3:O233"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42682,7 +44460,7 @@
     <row r="5" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -42704,40 +44482,40 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -42747,12 +44525,17 @@
       <c r="B7" s="4">
         <v>2.1614455677108864</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>0.05</v>
+      </c>
       <c r="E7" s="1">
         <v>0.2</v>
       </c>
       <c r="F7" s="1">
         <v>6.2458859999999996</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.15</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1">
@@ -42761,13 +44544,18 @@
       <c r="J7" s="1">
         <v>6.8165069999999996</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>0.15</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
         <v>0.15</v>
       </c>
       <c r="N7" s="1">
         <v>6.0772050000000002</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -45516,8 +47304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E4BC96-86D1-2143-B2F9-26F0F93E587C}">
   <dimension ref="A3:O233"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45527,14 +47315,14 @@
   <sheetData>
     <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -45556,40 +47344,40 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -45599,12 +47387,17 @@
       <c r="B7" s="4">
         <v>3.9948712010257599</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="7">
+        <v>0.05</v>
+      </c>
       <c r="E7" s="1">
         <v>0.2</v>
       </c>
       <c r="F7" s="1">
         <v>1.969471</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.05</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1">
@@ -45613,13 +47406,18 @@
       <c r="J7" s="1">
         <v>0.97517339999999997</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>0.05</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
         <v>0.15</v>
       </c>
       <c r="N7" s="1">
         <v>1.588789</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -45659,12 +47457,17 @@
       <c r="B9" s="4">
         <v>3.6528592694281468</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="1">
         <v>0.23333329999999999</v>
       </c>
       <c r="F9" s="1">
         <v>1.6979599999999999</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
@@ -45673,7 +47476,9 @@
       <c r="J9" s="1">
         <v>1.254041</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
         <v>0.1833333</v>
@@ -45681,6 +47486,9 @@
       <c r="N9" s="1">
         <v>1.4988649999999999</v>
       </c>
+      <c r="O9" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
@@ -45689,12 +47497,19 @@
       <c r="B10" s="4">
         <v>3.3562313287537333</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <f>B7-0.6</f>
+        <v>3.3948712010257598</v>
+      </c>
       <c r="E10" s="1">
         <v>0.25</v>
       </c>
       <c r="F10" s="1">
         <v>1.0857159999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <f>F7-0.7</f>
+        <v>1.269471</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
@@ -45703,7 +47518,10 @@
       <c r="J10" s="1">
         <v>0.57344740000000005</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1">
+        <f>J7-1.2</f>
+        <v>-0.22482659999999999</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
         <v>0.2</v>
@@ -45711,6 +47529,10 @@
       <c r="N10" s="1">
         <v>1.3573630000000001</v>
       </c>
+      <c r="O10" s="1">
+        <f>N7-0.9</f>
+        <v>0.68878899999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
@@ -45719,12 +47541,19 @@
       <c r="B11" s="4">
         <v>3.2259432903773178</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <f>B48+0.6</f>
+        <v>-3.3247721504557171</v>
+      </c>
       <c r="E11" s="1">
         <v>0.26666669999999998</v>
       </c>
       <c r="F11" s="1">
         <v>1.3384860000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <f>F71+0.3</f>
+        <v>-1.7899179999999999</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1">
@@ -45733,7 +47562,10 @@
       <c r="J11" s="1">
         <v>0.47871239999999998</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1">
+        <f>J104+0.7</f>
+        <v>-1.25284</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
         <v>0.21666669999999999</v>
@@ -45741,6 +47573,10 @@
       <c r="N11" s="1">
         <v>1.4136679999999999</v>
       </c>
+      <c r="O11" s="1">
+        <f>N74+0.5</f>
+        <v>-0.8220590000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
@@ -45756,6 +47592,7 @@
       <c r="F12" s="1">
         <v>1.735114</v>
       </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1">
         <v>0.31666670000000002</v>
@@ -45771,6 +47608,7 @@
       <c r="N12" s="1">
         <v>1.1576649999999999</v>
       </c>
+      <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
@@ -45779,12 +47617,17 @@
       <c r="B13" s="4">
         <v>2.7558664882670216</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" s="1">
         <v>0.3</v>
       </c>
       <c r="F13" s="1">
         <v>1.609505</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1">
@@ -45793,7 +47636,9 @@
       <c r="J13" s="1">
         <v>0.58157329999999996</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
         <v>0.25</v>
@@ -45801,6 +47646,9 @@
       <c r="N13" s="1">
         <v>1.196955</v>
       </c>
+      <c r="O13" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -45809,12 +47657,19 @@
       <c r="B14" s="4">
         <v>2.842679370717486</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <f>B7+0.2</f>
+        <v>4.1948712010257596</v>
+      </c>
       <c r="E14" s="1">
         <v>0.31666670000000002</v>
       </c>
       <c r="F14" s="1">
         <v>1.274411</v>
+      </c>
+      <c r="G14" s="1">
+        <f>F7+0.3</f>
+        <v>2.2694709999999998</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1">
@@ -45823,7 +47678,10 @@
       <c r="J14" s="1">
         <v>-0.53754420000000003</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1">
+        <f>J7+0.6</f>
+        <v>1.5751733999999999</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
         <v>0.26666669999999998</v>
@@ -45831,6 +47689,10 @@
       <c r="N14" s="1">
         <v>1.1453759999999999</v>
       </c>
+      <c r="O14" s="1">
+        <f>N7+0.2</f>
+        <v>1.788789</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
@@ -45839,12 +47701,19 @@
       <c r="B15" s="4">
         <v>2.0218159563680853</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <f>B48-0.4</f>
+        <v>-4.3247721504557175</v>
+      </c>
       <c r="E15" s="1">
         <v>0.3333333</v>
       </c>
       <c r="F15" s="1">
         <v>1.222661</v>
+      </c>
+      <c r="G15" s="1">
+        <f>F71-0.2</f>
+        <v>-2.2899180000000001</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1">
@@ -45853,13 +47722,20 @@
       <c r="J15" s="1">
         <v>0.80122439999999995</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1">
+        <f>J104-0.8</f>
+        <v>-2.75284</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
         <v>0.28333330000000001</v>
       </c>
       <c r="N15" s="1">
         <v>1.0545070000000001</v>
+      </c>
+      <c r="O15" s="1">
+        <f>N74-0.7</f>
+        <v>-2.0220590000000001</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">

--- a/Format Lab Result.xlsx
+++ b/Format Lab Result.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiucheng/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6103C2-6DDF-F54C-BF3E-80C189732A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4520D821-4DD4-6A47-827D-AE91C845D01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{601409D2-94AD-2040-8B45-B65981BDA1FF}"/>
   </bookViews>
   <sheets>
     <sheet name="dx V.S. t" sheetId="5" r:id="rId1"/>
     <sheet name="dy V.S. t" sheetId="8" r:id="rId2"/>
-    <sheet name="vx V.S. t" sheetId="7" r:id="rId3"/>
+    <sheet name="vx V.S. t" sheetId="7" state="hidden" r:id="rId3"/>
     <sheet name="vy V.S. t" sheetId="6" r:id="rId4"/>
     <sheet name="ax V.S. t" sheetId="1" state="hidden" r:id="rId5"/>
     <sheet name="ay V.S. t" sheetId="4" state="hidden" r:id="rId6"/>
@@ -205,13 +205,13 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -38659,18 +38659,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>2</v>
@@ -41555,18 +41555,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>2</v>
@@ -41628,7 +41628,7 @@
       <c r="B7" s="4">
         <v>0.25340839999999998</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>0.05</v>
       </c>
       <c r="E7" s="1">
@@ -44452,18 +44452,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>2</v>
@@ -47314,18 +47314,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>2</v>
@@ -47387,7 +47387,7 @@
       <c r="B7" s="4">
         <v>3.9948712010257599</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>0.05</v>
       </c>
       <c r="E7" s="1">
@@ -50247,10 +50247,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -53792,10 +53792,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>

--- a/Format Lab Result.xlsx
+++ b/Format Lab Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiucheng/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4520D821-4DD4-6A47-827D-AE91C845D01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96F462F-A1F2-E843-BC79-EABDBE240083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{601409D2-94AD-2040-8B45-B65981BDA1FF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{601409D2-94AD-2040-8B45-B65981BDA1FF}"/>
   </bookViews>
   <sheets>
     <sheet name="dx V.S. t" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="29">
   <si>
     <t>t</t>
   </si>
@@ -123,6 +123,12 @@
   <si>
     <t>∆vy [m/s]</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
 </sst>
 </file>
 
@@ -199,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -211,6 +217,9 @@
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,14 +397,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.8475284339457571E-2"/>
-                  <c:y val="-0.29448563524154076"/>
+                  <c:x val="-6.0169947506561683E-2"/>
+                  <c:y val="0.35820652173913042"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -451,7 +461,7 @@
             <c:errBarType val="both"/>
             <c:errValType val="fixedVal"/>
             <c:noEndCap val="0"/>
-            <c:val val="5.000000000000001E-2"/>
+            <c:val val="3.0000000000000006E-2"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525">
@@ -467,10 +477,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'dx V.S. t'!$A$7:$A$233</c:f>
+              <c:f>'dx V.S. t'!$A$7:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="227"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -605,10 +615,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'dx V.S. t'!$B$7:$B$233</c:f>
+              <c:f>'dx V.S. t'!$B$7:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="227"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0.26048179999999999</c:v>
                 </c:pt>
@@ -1162,12 +1172,26 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
+                      <a:sysClr val="window" lastClr="FFFFFF">
                         <a:lumMod val="75000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1176,13 +1200,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Acceleration</a:t>
+                  <a:t>Displacement-x (m)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>-x (m/s^2)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1198,12 +1217,26 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
+                    <a:sysClr val="window" lastClr="FFFFFF">
                       <a:lumMod val="75000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3944,8 +3977,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.30406188148612928"/>
-                  <c:y val="0.20411802464909279"/>
+                  <c:x val="-0.34893949132311081"/>
+                  <c:y val="8.7152901435843408E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4001,7 +4034,7 @@
             <c:errBarType val="both"/>
             <c:errValType val="fixedVal"/>
             <c:noEndCap val="0"/>
-            <c:val val="5.000000000000001E-2"/>
+            <c:val val="3.6"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525">
@@ -4017,10 +4050,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'vy V.S. t'!$A$7:$A$233</c:f>
+              <c:f>'vy V.S. t'!$A$7:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="227"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>8.3333350000000007E-3</c:v>
                 </c:pt>
@@ -4152,10 +4185,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'vy V.S. t'!$B$7:$B$233</c:f>
+              <c:f>'vy V.S. t'!$B$7:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="227"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>3.9948712010257599</c:v>
                 </c:pt>
@@ -4359,8 +4392,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.5561879200124884E-5"/>
-                  <c:y val="-0.47196208490243069"/>
+                  <c:x val="7.3077814359606669E-2"/>
+                  <c:y val="-0.62547369184279722"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4414,10 +4447,10 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.3948712010257598</c:v>
+                  <c:v>7.59487120102576</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.3247721504557171</c:v>
+                  <c:v>-7.5247721504557177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4496,8 +4529,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.5561879200124884E-5"/>
-                  <c:y val="-0.43479031153714481"/>
+                  <c:x val="7.5854244002256127E-2"/>
+                  <c:y val="-0.45152018561682833"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4551,10 +4584,10 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.1948712010257596</c:v>
+                  <c:v>0.39487120102575979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.3247721504557175</c:v>
+                  <c:v>-0.32477215045571706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4738,11 +4771,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Acceleration</a:t>
+                  <a:t>velocity-y</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>-x (m/s^2)</a:t>
+                  <a:t> (m/s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -4904,8 +4937,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t> Test1</a:t>
+              <a:t> </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Experimental</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4952,7 +4996,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Test1</c:v>
+                  <c:v>Experimental</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5025,8 +5069,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.19043058648038605"/>
-                  <c:y val="0.44160815327663555"/>
+                  <c:x val="-0.35955725784942572"/>
+                  <c:y val="0.12608965946985443"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5082,7 +5126,7 @@
             <c:errBarType val="both"/>
             <c:errValType val="fixedVal"/>
             <c:noEndCap val="0"/>
-            <c:val val="5.000000000000001E-2"/>
+            <c:val val="3"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525">
@@ -5098,10 +5142,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'vy V.S. t'!$E$7:$E$72</c:f>
+              <c:f>'vy V.S. t'!$E$7:$E$71</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0.2</c:v>
                 </c:pt>
@@ -5302,10 +5346,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'vy V.S. t'!$F$7:$F$72</c:f>
+              <c:f>'vy V.S. t'!$F$7:$F$71</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1.969471</c:v>
                 </c:pt>
@@ -5578,8 +5622,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.9415059189892099E-2"/>
-                  <c:y val="-0.5738997372991046"/>
+                  <c:x val="7.0934795765623629E-2"/>
+                  <c:y val="-0.70805604480112272"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5633,10 +5677,10 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.269471</c:v>
+                  <c:v>4.9694710000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.7899179999999999</c:v>
+                  <c:v>-5.0899179999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5715,8 +5759,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.8939073715317971E-2"/>
-                  <c:y val="-0.56203874208505045"/>
+                  <c:x val="5.5574502319521144E-2"/>
+                  <c:y val="-0.41356353557093911"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5770,10 +5814,10 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.2694709999999998</c:v>
+                  <c:v>-1.030529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.2899180000000001</c:v>
+                  <c:v>0.91008200000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5818,6 +5862,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5875,6 +6000,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>velocity-y (m/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6124,8 +6330,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.16593746553375316"/>
-                  <c:y val="0.38273811476843211"/>
+                  <c:x val="-0.36511667562994349"/>
+                  <c:y val="0.22720866851019225"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -6181,7 +6387,7 @@
             <c:errBarType val="both"/>
             <c:errValType val="fixedVal"/>
             <c:noEndCap val="0"/>
-            <c:val val="5.000000000000001E-2"/>
+            <c:val val="3.6"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525">
@@ -6197,10 +6403,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'vy V.S. t'!$I$7:$I$102</c:f>
+              <c:f>'vy V.S. t'!$I$7:$I$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0.23333329999999999</c:v>
                 </c:pt>
@@ -6488,16 +6694,22 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>1.816667</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.8333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'vy V.S. t'!$J$7:$J$102</c:f>
+              <c:f>'vy V.S. t'!$J$7:$J$104</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0.97517339999999997</c:v>
                 </c:pt>
@@ -6785,6 +6997,12 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>-1.256758</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-1.3434330000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-1.9528399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6863,8 +7081,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.160673665791776E-2"/>
-                  <c:y val="-0.50690288713910758"/>
+                  <c:x val="5.6318973331026485E-2"/>
+                  <c:y val="-0.5955969056153807"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -6918,10 +7136,10 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-0.22482659999999999</c:v>
+                  <c:v>4.5751733999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.25284</c:v>
+                  <c:v>-5.5528399999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7000,8 +7218,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.8223860978718475E-2"/>
-                  <c:y val="-0.66950845838905038"/>
+                  <c:x val="4.5357678467585733E-2"/>
+                  <c:y val="-0.28714838834119316"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -7055,10 +7273,10 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.5751733999999999</c:v>
+                  <c:v>-2.6248266</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.75284</c:v>
+                  <c:v>1.6471600000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7103,6 +7321,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7160,6 +7459,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>velocity-y (m/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7409,8 +7789,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.22504610969575792"/>
-                  <c:y val="0.36307541975742097"/>
+                  <c:x val="-0.38732155427592024"/>
+                  <c:y val="0.21114240054783112"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -7466,7 +7846,7 @@
             <c:errBarType val="both"/>
             <c:errValType val="fixedVal"/>
             <c:noEndCap val="0"/>
-            <c:val val="5.000000000000001E-2"/>
+            <c:val val="3.6"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525">
@@ -7482,10 +7862,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'vy V.S. t'!$M$7:$M$72</c:f>
+              <c:f>'vy V.S. t'!$M$7:$M$74</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0.15</c:v>
                 </c:pt>
@@ -7683,16 +8063,22 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>1.233333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.266667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'vy V.S. t'!$N$7:$N$72</c:f>
+              <c:f>'vy V.S. t'!$N$7:$N$74</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>1.588789</c:v>
                 </c:pt>
@@ -7890,6 +8276,12 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>-1.1738789999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.2255259999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.3220590000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7968,8 +8360,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.0303256592129959E-2"/>
-                  <c:y val="-0.43458785530574406"/>
+                  <c:x val="5.8203439216192338E-2"/>
+                  <c:y val="-0.69345309133116517"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -8023,10 +8415,10 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.68878899999999998</c:v>
+                  <c:v>5.1887889999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.8220590000000001</c:v>
+                  <c:v>-4.922059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8105,8 +8497,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.7423041632084585E-2"/>
-                  <c:y val="-0.56609740950701548"/>
+                  <c:x val="4.9199256342957132E-2"/>
+                  <c:y val="-0.31565252260134152"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -8160,10 +8552,10 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.788789</c:v>
+                  <c:v>-2.0112110000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.0220590000000001</c:v>
+                  <c:v>2.2779410000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8208,6 +8600,113 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="BFBFBF"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="BFBFBF"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="BFBFBF"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8265,6 +8764,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>velocity-y (m/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11965,6 +12545,30 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Experimental</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12008,7 +12612,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="2">
-                  <c:v>Test1</c:v>
+                  <c:v>Experimental</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12060,29 +12664,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:alpha val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.19043058648038605"/>
-                  <c:y val="0.44160815327663555"/>
+                  <c:x val="4.3163719034590493E-2"/>
+                  <c:y val="0.35039471969620251"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -12119,7 +12709,7 @@
             <c:errBarType val="both"/>
             <c:errValType val="fixedVal"/>
             <c:noEndCap val="0"/>
-            <c:val val="0.15000000000000002"/>
+            <c:val val="5.000000000000001E-2"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525">
@@ -12154,10 +12744,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'dx V.S. t'!$E$7:$E$72</c:f>
+              <c:f>'dx V.S. t'!$E$7:$E$74</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0.1833333</c:v>
                 </c:pt>
@@ -12355,16 +12945,22 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>1.266667</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2833330000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.316667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'dx V.S. t'!$F$7:$F$72</c:f>
+              <c:f>'dx V.S. t'!$F$7:$F$74</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>1.7199310000000001</c:v>
                 </c:pt>
@@ -12562,6 +13158,12 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>11.49427</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11.70454</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.16473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12606,6 +13208,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -12663,6 +13346,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Displacement-x (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -18060,29 +18824,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:alpha val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.16593746553375316"/>
-                  <c:y val="0.38273811476843211"/>
+                  <c:x val="2.8316686084820242E-2"/>
+                  <c:y val="0.31961355636996991"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -18119,7 +18869,7 @@
             <c:errBarType val="both"/>
             <c:errValType val="fixedVal"/>
             <c:noEndCap val="0"/>
-            <c:val val="0.15000000000000002"/>
+            <c:val val="5.000000000000001E-2"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525">
@@ -18154,10 +18904,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'dx V.S. t'!$I$7:$I$102</c:f>
+              <c:f>'dx V.S. t'!$I$7:$I$106</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0.21666669999999999</c:v>
                 </c:pt>
@@ -18445,16 +19195,28 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.816667</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.8333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.8666670000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'dx V.S. t'!$J$7:$J$102</c:f>
+              <c:f>'dx V.S. t'!$J$7:$J$106</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>1.7295780000000001</c:v>
                 </c:pt>
@@ -18742,6 +19504,18 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>9.9272399999999994</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.9905270000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10.103730000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10.16403</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10.190910000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18786,6 +19560,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -18843,6 +19698,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Displacement-x (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -19047,29 +19983,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:alpha val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.22504610969575792"/>
-                  <c:y val="0.36307541975742097"/>
+                  <c:x val="1.4291931218894289E-2"/>
+                  <c:y val="0.47172103375716301"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -19125,7 +20047,7 @@
             <c:errBarType val="both"/>
             <c:errValType val="fixedVal"/>
             <c:noEndCap val="0"/>
-            <c:val val="0.15000000000000002"/>
+            <c:val val="5.000000000000001E-2"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525">
@@ -19141,10 +20063,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'dx V.S. t'!$M$7:$M$72</c:f>
+              <c:f>'dx V.S. t'!$M$7:$M$76</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0.13333329999999999</c:v>
                 </c:pt>
@@ -19342,16 +20264,28 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>1.2166669999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.233333</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.266667</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.2833330000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'dx V.S. t'!$N$7:$N$72</c:f>
+              <c:f>'dx V.S. t'!$N$7:$N$76</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0.93013129999999999</c:v>
                 </c:pt>
@@ -19549,6 +20483,18 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>9.7684800000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10.00508</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10.274800000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10.469250000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10.725759999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19593,6 +20539,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -19650,6 +20677,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Displacement-x (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -19877,12 +20985,63 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.9294838145231898E-2"/>
+                  <c:y val="3.4026018486819583E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'dy V.S. t'!$A$7:$A$233</c:f>
+              <c:f>'dy V.S. t'!$A$7:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="227"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -20017,10 +21176,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'dy V.S. t'!$B$7:$B$233</c:f>
+              <c:f>'dy V.S. t'!$B$7:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="227"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0.25340839999999998</c:v>
                 </c:pt>
@@ -20332,11 +21491,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Acceleration</a:t>
+                  <a:t>Displacement-x</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>-x (m/s^2)</a:t>
+                  <a:t> (m)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -20479,6 +21638,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Experimental</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20522,7 +21712,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="2">
-                  <c:v>Test1</c:v>
+                  <c:v>Experimental</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20563,12 +21753,63 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.8961942257217893E-2"/>
+                  <c:y val="-5.9492563429571301E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'dy V.S. t'!$E$7:$E$72</c:f>
+              <c:f>'dy V.S. t'!$E$7:$E$75</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>0.1833333</c:v>
                 </c:pt>
@@ -20766,16 +22007,25 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>1.266667</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2833330000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.316667</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.3333330000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'dy V.S. t'!$F$7:$F$72</c:f>
+              <c:f>'dy V.S. t'!$F$7:$F$75</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>0.97892679999999999</c:v>
                 </c:pt>
@@ -20973,6 +22223,15 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0.55818290000000004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.52180349999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.45987729999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.41334070000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21017,6 +22276,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -21074,6 +22414,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Displacement-x (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -21267,12 +22688,123 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1185920336268402"/>
+                  <c:y val="-0.18887216723525938"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'dy V.S. t'!$I$7:$I$102</c:f>
+              <c:f>'dy V.S. t'!$I$7:$I$106</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0.21666669999999999</c:v>
                 </c:pt>
@@ -21560,16 +23092,28 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.816667</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.8333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.8666670000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'dy V.S. t'!$J$7:$J$102</c:f>
+              <c:f>'dy V.S. t'!$J$7:$J$106</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0.95586629999999995</c:v>
                 </c:pt>
@@ -21857,6 +23401,18 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>-0.16407440000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.19020899999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.20596629999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.23499010000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.271061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21901,6 +23457,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -21958,6 +23595,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Displacement-x (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -22151,12 +23869,63 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11079499387594281"/>
+                  <c:y val="7.9076488616669105E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'dy V.S. t'!$M$7:$M$72</c:f>
+              <c:f>'dy V.S. t'!$M$7:$M$76</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0.13333329999999999</c:v>
                 </c:pt>
@@ -22354,16 +24123,28 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>1.2166669999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.233333</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.266667</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.2833330000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'dy V.S. t'!$N$7:$N$72</c:f>
+              <c:f>'dy V.S. t'!$N$7:$N$76</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0.88698829999999995</c:v>
                 </c:pt>
@@ -22561,6 +24342,18 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0.77688619999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.74959450000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.73775679999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.70874360000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69368819999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22605,6 +24398,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -22662,6 +24536,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Displacement-x (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -38644,10 +40599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461A7755-E4F4-3444-9B01-2D92C83B7B98}">
-  <dimension ref="A3:O233"/>
+  <dimension ref="A3:AA233"/>
   <sheetViews>
-    <sheetView topLeftCell="L8" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C18" sqref="C8:C18"/>
+    <sheetView zoomScale="44" zoomScaleNormal="263" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38658,13 +40613,13 @@
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -38672,10 +40627,10 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2"/>
+      <c r="F5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="7"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>5</v>
@@ -38687,7 +40642,7 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -38725,7 +40680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>0</v>
       </c>
@@ -38733,7 +40688,7 @@
         <v>0.26048179999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E7" s="1">
         <v>0.1833333</v>
@@ -38742,7 +40697,7 @@
         <v>1.7199310000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1">
@@ -38752,7 +40707,7 @@
         <v>1.7295780000000001</v>
       </c>
       <c r="K7" s="1">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -38762,10 +40717,10 @@
         <v>0.93013129999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1.6666670000000001E-2</v>
       </c>
@@ -38796,7 +40751,7 @@
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>3.3333330000000001E-2</v>
       </c>
@@ -38826,7 +40781,7 @@
         <v>1.1327050000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>0.05</v>
       </c>
@@ -38856,7 +40811,7 @@
         <v>1.222666</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>6.6666669999999997E-2</v>
       </c>
@@ -38885,8 +40840,11 @@
       <c r="N11" s="1">
         <v>1.322217</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>8.3333329999999997E-2</v>
       </c>
@@ -38916,7 +40874,7 @@
         <v>1.4039600000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>0.1</v>
       </c>
@@ -38946,7 +40904,7 @@
         <v>1.490545</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>0.1166667</v>
       </c>
@@ -38976,7 +40934,7 @@
         <v>1.593251</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>0.13333329999999999</v>
       </c>
@@ -39006,7 +40964,7 @@
         <v>1.696116</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>0.15</v>
       </c>
@@ -40633,12 +42591,8 @@
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="E75" s="1">
-        <v>1.3333330000000001</v>
-      </c>
-      <c r="F75" s="1">
-        <v>12.13231</v>
-      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
       <c r="I75" s="1">
         <v>1.35</v>
       </c>
@@ -41531,9 +43485,10 @@
       <c r="B233" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41544,8 +43499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A56EA31-C221-014A-AB1B-BE6E6AA79FE0}">
   <dimension ref="A3:O233"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="AE56" sqref="AE56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41568,10 +43523,10 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2"/>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>5</v>
@@ -41629,7 +43584,7 @@
         <v>0.25340839999999998</v>
       </c>
       <c r="C7" s="5">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E7" s="1">
         <v>0.1833333</v>
@@ -41638,7 +43593,7 @@
         <v>0.97892679999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1">
@@ -41648,7 +43603,7 @@
         <v>0.95586629999999995</v>
       </c>
       <c r="K7" s="1">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -41658,7 +43613,7 @@
         <v>0.88698829999999995</v>
       </c>
       <c r="O7" s="1">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -44426,9 +46381,10 @@
       <c r="B233" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -47302,10 +49258,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E4BC96-86D1-2143-B2F9-26F0F93E587C}">
-  <dimension ref="A3:O233"/>
+  <dimension ref="A3:W233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W45" sqref="W45"/>
+    <sheetView topLeftCell="C3" zoomScale="82" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47327,10 +49283,10 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2"/>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>5</v>
@@ -47388,7 +49344,8 @@
         <v>3.9948712010257599</v>
       </c>
       <c r="C7" s="5">
-        <v>0.05</v>
+        <f>((('dy V.S. t'!B8+'dy V.S. t'!C7)-('dy V.S. t'!B7-'dy V.S. t'!C7))/('dy V.S. t'!A8-'dy V.S. t'!A7))-(('dy V.S. t'!B8-'dy V.S. t'!B7)/('dy V.S. t'!A8-'dy V.S. t'!A7))</f>
+        <v>3.5999992800001448</v>
       </c>
       <c r="E7" s="1">
         <v>0.2</v>
@@ -47396,8 +49353,9 @@
       <c r="F7" s="1">
         <v>1.969471</v>
       </c>
-      <c r="G7" s="1">
-        <v>0.05</v>
+      <c r="G7" s="5">
+        <f>((('dy V.S. t'!F8+'dy V.S. t'!G7)-('dy V.S. t'!F7-'dy V.S. t'!G7))/('dy V.S. t'!E8-'dy V.S. t'!E7))-(('dy V.S. t'!F8-'dy V.S. t'!F7)/('dy V.S. t'!E8-'dy V.S. t'!E7))</f>
+        <v>3.5999928000144021</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1">
@@ -47406,8 +49364,9 @@
       <c r="J7" s="1">
         <v>0.97517339999999997</v>
       </c>
-      <c r="K7" s="1">
-        <v>0.05</v>
+      <c r="K7" s="5">
+        <f>((('dy V.S. t'!J8+'dy V.S. t'!K7)-('dy V.S. t'!J7-'dy V.S. t'!K7))/('dy V.S. t'!I8-'dy V.S. t'!I7))-(('dy V.S. t'!J8-'dy V.S. t'!J7)/('dy V.S. t'!I8-'dy V.S. t'!I7))</f>
+        <v>3.6000144000576024</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -47416,8 +49375,9 @@
       <c r="N7" s="1">
         <v>1.588789</v>
       </c>
-      <c r="O7" s="1">
-        <v>0.05</v>
+      <c r="O7" s="5">
+        <f>((('dy V.S. t'!N8+'dy V.S. t'!O7)-('dy V.S. t'!N7-'dy V.S. t'!O7))/('dy V.S. t'!M8-'dy V.S. t'!M7))-(('dy V.S. t'!N8-'dy V.S. t'!N7)/('dy V.S. t'!M8-'dy V.S. t'!M7))</f>
+        <v>3.5999928000144021</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -47498,8 +49458,8 @@
         <v>3.3562313287537333</v>
       </c>
       <c r="C10" s="1">
-        <f>B7-0.6</f>
-        <v>3.3948712010257598</v>
+        <f>B7+3.6</f>
+        <v>7.59487120102576</v>
       </c>
       <c r="E10" s="1">
         <v>0.25</v>
@@ -47508,8 +49468,8 @@
         <v>1.0857159999999999</v>
       </c>
       <c r="G10" s="1">
-        <f>F7-0.7</f>
-        <v>1.269471</v>
+        <f>F7+3</f>
+        <v>4.9694710000000004</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
@@ -47519,8 +49479,8 @@
         <v>0.57344740000000005</v>
       </c>
       <c r="K10" s="1">
-        <f>J7-1.2</f>
-        <v>-0.22482659999999999</v>
+        <f>J7+3.6</f>
+        <v>4.5751733999999997</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -47530,8 +49490,8 @@
         <v>1.3573630000000001</v>
       </c>
       <c r="O10" s="1">
-        <f>N7-0.9</f>
-        <v>0.68878899999999998</v>
+        <f>N7+3.6</f>
+        <v>5.1887889999999999</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -47542,8 +49502,8 @@
         <v>3.2259432903773178</v>
       </c>
       <c r="C11" s="1">
-        <f>B48+0.6</f>
-        <v>-3.3247721504557171</v>
+        <f>B48-3.6</f>
+        <v>-7.5247721504557177</v>
       </c>
       <c r="E11" s="1">
         <v>0.26666669999999998</v>
@@ -47552,8 +49512,8 @@
         <v>1.3384860000000001</v>
       </c>
       <c r="G11" s="1">
-        <f>F71+0.3</f>
-        <v>-1.7899179999999999</v>
+        <f>F71-3</f>
+        <v>-5.0899179999999999</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1">
@@ -47563,8 +49523,8 @@
         <v>0.47871239999999998</v>
       </c>
       <c r="K11" s="1">
-        <f>J104+0.7</f>
-        <v>-1.25284</v>
+        <f>J104-3.6</f>
+        <v>-5.5528399999999998</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
@@ -47574,8 +49534,8 @@
         <v>1.4136679999999999</v>
       </c>
       <c r="O11" s="1">
-        <f>N74+0.5</f>
-        <v>-0.8220590000000001</v>
+        <f>N74-3.6</f>
+        <v>-4.922059</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -47658,8 +49618,8 @@
         <v>2.842679370717486</v>
       </c>
       <c r="C14" s="1">
-        <f>B7+0.2</f>
-        <v>4.1948712010257596</v>
+        <f>B7-3.6</f>
+        <v>0.39487120102575979</v>
       </c>
       <c r="E14" s="1">
         <v>0.31666670000000002</v>
@@ -47668,8 +49628,8 @@
         <v>1.274411</v>
       </c>
       <c r="G14" s="1">
-        <f>F7+0.3</f>
-        <v>2.2694709999999998</v>
+        <f>F7-3</f>
+        <v>-1.030529</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1">
@@ -47679,8 +49639,8 @@
         <v>-0.53754420000000003</v>
       </c>
       <c r="K14" s="1">
-        <f>J7+0.6</f>
-        <v>1.5751733999999999</v>
+        <f>J7-3.6</f>
+        <v>-2.6248266</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -47690,8 +49650,8 @@
         <v>1.1453759999999999</v>
       </c>
       <c r="O14" s="1">
-        <f>N7+0.2</f>
-        <v>1.788789</v>
+        <f>N7-3.6</f>
+        <v>-2.0112110000000003</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -47702,8 +49662,8 @@
         <v>2.0218159563680853</v>
       </c>
       <c r="C15" s="1">
-        <f>B48-0.4</f>
-        <v>-4.3247721504557175</v>
+        <f>B48+3.6</f>
+        <v>-0.32477215045571706</v>
       </c>
       <c r="E15" s="1">
         <v>0.3333333</v>
@@ -47712,8 +49672,8 @@
         <v>1.222661</v>
       </c>
       <c r="G15" s="1">
-        <f>F71-0.2</f>
-        <v>-2.2899180000000001</v>
+        <f>F71+3</f>
+        <v>0.91008200000000006</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1">
@@ -47723,8 +49683,8 @@
         <v>0.80122439999999995</v>
       </c>
       <c r="K15" s="1">
-        <f>J104-0.8</f>
-        <v>-2.75284</v>
+        <f>J104+3.6</f>
+        <v>1.6471600000000002</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -47734,8 +49694,8 @@
         <v>1.0545070000000001</v>
       </c>
       <c r="O15" s="1">
-        <f>N74-0.7</f>
-        <v>-2.0220590000000001</v>
+        <f>N74+3.6</f>
+        <v>2.2779410000000002</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -48245,7 +50205,7 @@
         <v>-0.33487119999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>0.44166664999999999</v>
       </c>
@@ -48274,7 +50234,7 @@
         <v>-0.5343253</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>0.45833334999999997</v>
       </c>
@@ -48303,7 +50263,7 @@
         <v>-0.80904310000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>0.47499999999999998</v>
       </c>
@@ -48332,7 +50292,7 @@
         <v>-0.53456919999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>0.49166664999999998</v>
       </c>
@@ -48361,7 +50321,7 @@
         <v>-0.24632809999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>0.50833335000000002</v>
       </c>
@@ -48390,7 +50350,7 @@
         <v>-0.58142150000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>0.52500000000000002</v>
       </c>
@@ -48419,7 +50379,7 @@
         <v>-0.52325659999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>0.54166665000000003</v>
       </c>
@@ -48448,7 +50408,7 @@
         <v>-0.99527089999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>0.55833335000000006</v>
       </c>
@@ -48477,7 +50437,7 @@
         <v>-0.45743660000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>0.57499999999999996</v>
       </c>
@@ -48506,7 +50466,7 @@
         <v>-8.5874710000000007E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>0.59166665000000007</v>
       </c>
@@ -48535,7 +50495,7 @@
         <v>-0.83304420000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>0.60833334999999999</v>
       </c>
@@ -48564,7 +50524,7 @@
         <v>-1.100101</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>0.625</v>
       </c>
@@ -48593,7 +50553,7 @@
         <v>-0.83716880000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>0.64166665000000001</v>
       </c>
@@ -48621,8 +50581,11 @@
       <c r="N45" s="1">
         <v>-0.35419610000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>0.65833334999999993</v>
       </c>
@@ -48651,7 +50614,7 @@
         <v>-0.45844400000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>0.67500000000000004</v>
       </c>
@@ -48680,7 +50643,7 @@
         <v>-0.49450490000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>0.69166664999999994</v>
       </c>
@@ -50227,9 +52190,10 @@
       <c r="B233" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Format Lab Result.xlsx
+++ b/Format Lab Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiucheng/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96F462F-A1F2-E843-BC79-EABDBE240083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A751C739-C76F-324F-BAB6-850DFB412518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{601409D2-94AD-2040-8B45-B65981BDA1FF}"/>
   </bookViews>
@@ -21491,7 +21491,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Displacement-x</a:t>
+                  <a:t>Displacement-y</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -22448,7 +22448,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Displacement-x (m)</a:t>
+                  <a:t>Displacement-y (m)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -23629,7 +23629,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Displacement-x (m)</a:t>
+                  <a:t>Displacement-y (m)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -24570,7 +24570,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Displacement-x (m)</a:t>
+                  <a:t>Displacement-y (m)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -40601,7 +40601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461A7755-E4F4-3444-9B01-2D92C83B7B98}">
   <dimension ref="A3:AA233"/>
   <sheetViews>
-    <sheetView zoomScale="44" zoomScaleNormal="263" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="86" zoomScaleNormal="263" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -43499,8 +43499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A56EA31-C221-014A-AB1B-BE6E6AA79FE0}">
   <dimension ref="A3:O233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="AE56" sqref="AE56"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49260,7 +49260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E4BC96-86D1-2143-B2F9-26F0F93E587C}">
   <dimension ref="A3:W233"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="82" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>

--- a/Format Lab Result.xlsx
+++ b/Format Lab Result.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiucheng/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A751C739-C76F-324F-BAB6-850DFB412518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6060DF-4A12-C440-AAAA-06DC38275A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{601409D2-94AD-2040-8B45-B65981BDA1FF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{601409D2-94AD-2040-8B45-B65981BDA1FF}"/>
   </bookViews>
   <sheets>
     <sheet name="dx V.S. t" sheetId="5" r:id="rId1"/>
     <sheet name="dy V.S. t" sheetId="8" r:id="rId2"/>
-    <sheet name="vx V.S. t" sheetId="7" state="hidden" r:id="rId3"/>
+    <sheet name="vx V.S. t" sheetId="7" r:id="rId3"/>
     <sheet name="vy V.S. t" sheetId="6" r:id="rId4"/>
     <sheet name="ax V.S. t" sheetId="1" state="hidden" r:id="rId5"/>
     <sheet name="ay V.S. t" sheetId="4" state="hidden" r:id="rId6"/>
@@ -1399,7 +1399,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="2">
-                  <c:v>Test1</c:v>
+                  <c:v>Experimental</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1953,6 +1953,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2010,6 +2091,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>velocity-x (m/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2902,6 +3064,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2959,6 +3202,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>velocity-x (m/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3184,8 +3508,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.22504610969575792"/>
-                  <c:y val="0.36307541975742097"/>
+                  <c:x val="-0.17608119667492822"/>
+                  <c:y val="0.36493000874890646"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3671,6 +3995,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3728,6 +4133,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>velocity-x (m/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -24876,8 +25362,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.8475284339457571E-2"/>
-                  <c:y val="-0.29448563524154076"/>
+                  <c:x val="-6.904239685916698E-2"/>
+                  <c:y val="0.23209346114344404"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -25350,12 +25836,26 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
+                      <a:sysClr val="window" lastClr="FFFFFF">
                         <a:lumMod val="75000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -25364,13 +25864,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Acceleration</a:t>
+                  <a:t>velocity-x (m/s)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>-x (m/s^2)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -25386,12 +25881,26 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
+                    <a:sysClr val="window" lastClr="FFFFFF">
                       <a:lumMod val="75000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -40601,8 +41110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461A7755-E4F4-3444-9B01-2D92C83B7B98}">
   <dimension ref="A3:AA233"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="86" zoomScaleNormal="263" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A3" zoomScale="164" zoomScaleNormal="263" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43499,8 +44008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A56EA31-C221-014A-AB1B-BE6E6AA79FE0}">
   <dimension ref="A3:O233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView zoomScale="57" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46395,8 +46904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C87EDB6-C669-EA4E-B56E-03421DD9E6D7}">
   <dimension ref="A3:O233"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="A6:C6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46421,10 +46930,10 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2"/>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>5</v>
@@ -46482,7 +46991,8 @@
         <v>2.1614455677108864</v>
       </c>
       <c r="C7" s="1">
-        <v>0.05</v>
+        <f>('dx V.S. t'!C7*2)/('dx V.S. t'!A8-'dx V.S. t'!A7)</f>
+        <v>3.5999992800001435</v>
       </c>
       <c r="E7" s="1">
         <v>0.2</v>
@@ -46491,7 +47001,8 @@
         <v>6.2458859999999996</v>
       </c>
       <c r="G7" s="1">
-        <v>0.15</v>
+        <f>('dx V.S. t'!G7*2)/('dx V.S. t'!E8-'dx V.S. t'!E7)</f>
+        <v>5.9999880000239978</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1">
@@ -46501,7 +47012,8 @@
         <v>6.8165069999999996</v>
       </c>
       <c r="K7" s="1">
-        <v>0.15</v>
+        <f>('dx V.S. t'!K7*2)/('dx V.S. t'!I8-'dx V.S. t'!I7)</f>
+        <v>6.0000240000959995</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -46511,7 +47023,8 @@
         <v>6.0772050000000002</v>
       </c>
       <c r="O7" s="1">
-        <v>0.15</v>
+        <f>('dx V.S. t'!O7*2)/('dx V.S. t'!M8-'dx V.S. t'!M7)</f>
+        <v>5.9999880000239978</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -49247,9 +49760,10 @@
       <c r="B233" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -49260,8 +49774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E4BC96-86D1-2143-B2F9-26F0F93E587C}">
   <dimension ref="A3:W233"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView topLeftCell="D4" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Format Lab Result.xlsx
+++ b/Format Lab Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiucheng/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6060DF-4A12-C440-AAAA-06DC38275A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D3CC22-7627-9E40-9E47-E1F87C573EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{601409D2-94AD-2040-8B45-B65981BDA1FF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34600" windowHeight="21580" activeTab="1" xr2:uid="{601409D2-94AD-2040-8B45-B65981BDA1FF}"/>
   </bookViews>
   <sheets>
     <sheet name="dx V.S. t" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="29">
   <si>
     <t>t</t>
   </si>
@@ -461,7 +461,7 @@
             <c:errBarType val="both"/>
             <c:errValType val="fixedVal"/>
             <c:noEndCap val="0"/>
-            <c:val val="3.0000000000000006E-2"/>
+            <c:val val="5.000000000000001E-2"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525">
@@ -855,6 +855,42 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>('dx V.S. t'!$A$7,'dx V.S. t'!$A$49)</c:f>
@@ -983,6 +1019,42 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>('dx V.S. t'!$A$7,'dx V.S. t'!$A$49)</c:f>
@@ -1356,6 +1428,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Experimental</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1472,8 +1575,561 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.19043058648038605"/>
-                  <c:y val="0.44160815327663555"/>
+                  <c:x val="5.8490503117360995E-2"/>
+                  <c:y val="0.28746155716823502"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'vx V.S. t'!$E$7:$E$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21666669999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26666669999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31666670000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36666670000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4166667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43333329999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.46666669999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.48333330000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.51666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.53333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.56666669999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.58333330000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.61666670000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.63333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66666669999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.68333330000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.71666669999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.73333329999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.76666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.78333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.81666669999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.83333330000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.86666670000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.88333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.91666669999999995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.93333330000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.96666669999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.98333329999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.016667</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.066667</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0833330000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.1166670000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.1666669999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.183333</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2166669999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.233333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.266667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vx V.S. t'!$F$7:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>6.2458859999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5918020000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3551450000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4204640000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4983269999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6294060000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9732229999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6719549999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9218849999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.89947</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7379439999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0635770000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.3895590000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4122830000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.1949110000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.519971</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.7151269999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.0425450000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.305059</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.8270549999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.1525429999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.3918049999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.3913359999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0881869999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.4137199999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.1528179999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.3222</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.6984110000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.2020280000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.9333239999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.9131549999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.7830779999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.3690529999999992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.5247739999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.1536349999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.10529</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.6808580000000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.2402490000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.5884940000000007</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.4812919999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.7816080000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.9172790000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.2362599999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.10844</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.6754049999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.6777490000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.09545</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.8957029999999992</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.00009</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.19331</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.63461</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13.26732</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.719060000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.30673</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.2652</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.59098</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12.93806</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13.4826</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11.960459999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.394640000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12.82779</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12.50343</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12.94303</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13.37243</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.93704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0201-C046-BF7E-3F21C522453B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vx V.S. t'!$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Worst Fit 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11164260717410324"/>
+                  <c:y val="-0.41051367984226222"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1507,203 +2163,14 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'vx V.S. t'!$E$7:$E$72</c:f>
+              <c:f>('vx V.S. t'!$E$7,'vx V.S. t'!$E$71)</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21666669999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.23333329999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.26666669999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.28333330000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.31666670000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.3333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.36666670000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.38333329999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.4166667</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.43333329999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.46666669999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.48333330000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.51666670000000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.53333330000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.56666669999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.58333330000000005</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.61666670000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.63333329999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.66666669999999995</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.68333330000000003</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.71666669999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.73333329999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.76666670000000003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.78333330000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.81666669999999997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.83333330000000005</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.86666670000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.88333329999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.91666669999999995</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.93333330000000003</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.96666669999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.98333329999999997</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.016667</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.0333330000000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.066667</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.0833330000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.1166670000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.1333329999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.1499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.1666669999999999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.183333</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.2166669999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.233333</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="64">
                   <c:v>1.266667</c:v>
                 </c:pt>
               </c:numCache>
@@ -1711,204 +2178,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'vx V.S. t'!$F$7:$F$72</c:f>
+              <c:f>'vx V.S. t'!$G$10:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.2458859999999996</c:v>
+                  <c:v>12.245874000023997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5918020000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.3551450000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.4204640000000008</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.4983269999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.6294060000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.9732229999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6719549999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.9218849999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.89947</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.7379439999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.0635770000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.3895590000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.4122830000000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.1949110000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.519971</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.7151269999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.0425450000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.305059</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.8270549999999997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.1525429999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.3918049999999997</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.3913359999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0881869999999996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.4137199999999996</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.1528179999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10.3222</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8.6984110000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.2020280000000003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.9333239999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.9131549999999997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9.7830779999999997</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.3690529999999992</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.5247739999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.1536349999999995</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>10.10529</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.6808580000000006</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.2402490000000004</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.5884940000000007</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.4812919999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.7816080000000003</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8.9172790000000006</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.2362599999999997</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10.10844</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9.6754049999999996</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9.6777490000000004</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>11.09545</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>9.8957029999999992</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>10.00009</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>11.19331</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>11.63461</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>13.26732</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12.719060000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>11.30673</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>13.2652</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>13.59098</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>12.93806</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>13.4826</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>11.960459999999999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>12.394640000000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>12.82779</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>12.50343</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>12.94303</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>13.37243</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>12.93704</c:v>
+                  <c:v>6.9370519999760019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1916,7 +2194,144 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0201-C046-BF7E-3F21C522453B}"/>
+              <c16:uniqueId val="{00000002-B3AA-AA4D-8AFB-5ACE23113CEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vx V.S. t'!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Worst Fit 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11219625530548119"/>
+                  <c:y val="-0.17645037352938558"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('vx V.S. t'!$E$7,'vx V.S. t'!$E$71)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.266667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vx V.S. t'!$G$14:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.24589799997600181</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.937028000023997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B3AA-AA4D-8AFB-5ACE23113CEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2281,6 +2696,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Test2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2397,8 +2843,759 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.7027618858103538E-2"/>
-                  <c:y val="-0.3799504228638087"/>
+                  <c:x val="3.4665354330708664E-2"/>
+                  <c:y val="0.27303805774278217"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'vx V.S. t'!$I$7:$I$104</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>0.23333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26666669999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31666670000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36666670000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4166667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43333329999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46666669999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.48333330000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.51666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.56666669999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.58333330000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.61666670000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.63333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.66666669999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68333330000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71666669999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.73333329999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.76666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.78333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.81666669999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.83333330000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.86666670000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.88333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.91666669999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.93333330000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.96666669999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.98333329999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.016667</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.066667</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0833330000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1166670000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.1333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1666669999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.183333</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.2166669999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.233333</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.266667</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.2833330000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.316667</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.3666670000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.3833329999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.4166669999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.433333</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4666669999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.483333</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.516667</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.5333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.566667</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5833330000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6166670000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.6333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.6666669999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.683333</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7166669999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.733333</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.766667</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.7833330000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.816667</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.8333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vx V.S. t'!$J$7:$J$104</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>6.8165069999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7637600000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1649529999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2730620000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8757679999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1636129999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1691029999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0965259999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7759539999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4741619999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2236799999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9061729999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.2299600000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.7384550000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9813789999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1794060000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.5846549999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.2757440000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8752649999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9798249999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.6796740000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.8876369999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.087491</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.2989879999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.9951720000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5856050000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7896749999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.6803990000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6832940000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8968999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3916440000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.5948609999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.2847749999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.5804</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.3829960000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.9768460000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.2058260000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.9097460000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.2917630000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.0888710000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.8812620000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.6839940000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.8037520000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.50352</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.2090189999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.4770479999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.5615699999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.3937609999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.9777459999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.3740760000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.9977119999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1881959999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.3677339999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.4892909999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.598649</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.9822059999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.5958069999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.6881810000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.2020279999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.3075369999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.1856910000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.1963999999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.709619</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.2917519999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.1810790000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.1062979999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.8163610000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.9918589999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.7808229999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.4128610000000004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.6826230000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.6818860000000004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.4285990000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.7030510000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.2932259999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.3913349999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.997503</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.4052119999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.4024349999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.5073780000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.318295</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.71295</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.6973710000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.3296279999999996</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.3876520000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.4879150000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.923495</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.9968210000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.11036</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.996238</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.3909039999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.238408</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.2248060000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.807801</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.6128</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.2945469999999997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.2051170000000004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.6156160000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B12E-0F4B-8B52-6DCE277BB5DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vx V.S. t'!$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Worst Fit 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.2188940729114521E-2"/>
+                  <c:y val="-0.4999821826148349"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2432,594 +3629,30 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'vx V.S. t'!$I$7:$I$102</c:f>
+              <c:f>('vx V.S. t'!$I$7,'vx V.S. t'!$I$104)</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0.23333329999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.26666669999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.28333330000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.31666670000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.36666670000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.38333329999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.4166667</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.43333329999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.46666669999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.48333330000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.51666670000000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.53333330000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.56666669999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.58333330000000005</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.61666670000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.63333329999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.66666669999999995</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.68333330000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.71666669999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.73333329999999997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.76666670000000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.78333330000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.81666669999999997</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.83333330000000005</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.86666670000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.88333329999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.91666669999999995</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.93333330000000003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.96666669999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.98333329999999997</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.016667</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.0333330000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.066667</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.0833330000000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.1166670000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.1333329999999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.1499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.1666669999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.183333</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.2166669999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.233333</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.266667</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.2833330000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.316667</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.3333330000000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.3666670000000001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.3833329999999999</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.4166669999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.433333</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.4666669999999999</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.483333</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.516667</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.5333330000000001</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.566667</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.5833330000000001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.6166670000000001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.6333329999999999</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.6666669999999999</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.683333</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.7166669999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.733333</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.766667</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.7833330000000001</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.816667</c:v>
+                  <c:v>1.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'vx V.S. t'!$J$7:$J$102</c:f>
+              <c:f>'vx V.S. t'!$K$10:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.8165069999999996</c:v>
+                  <c:v>12.816531000095999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7637600000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.1649529999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.2730620000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.8757679999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.1636129999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.1691029999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.0965259999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.7759539999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.4741619999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.2236799999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.9061729999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.2299600000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.7384550000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.9813789999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.1794060000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.5846549999999997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.2757440000000004</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.8752649999999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.9798249999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.6796740000000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.8876369999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.087491</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.2989879999999996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.9951720000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.5856050000000002</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.7896749999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.6803990000000004</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.6832940000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.8968999999999996</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.3916440000000003</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.5948609999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7.2847749999999998</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.5804</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.3829960000000003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.9768460000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.2058260000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.9097460000000002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.2917630000000004</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.0888710000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.8812620000000004</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7.6839940000000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.8037520000000002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.50352</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5.2090189999999996</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5.4770479999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6.5615699999999997</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.3937609999999996</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.9777459999999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8.3740760000000005</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7.9977119999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.1881959999999996</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.3677339999999996</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.4892909999999997</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4.598649</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4.9822059999999997</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.5958069999999998</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.6881810000000002</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.2020279999999999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.3075369999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5.1856910000000003</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4.1963999999999997</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4.709619</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6.2917519999999998</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6.1810790000000004</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.1062979999999998</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.8163610000000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4.9918589999999998</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4.7808229999999998</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4.4128610000000004</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>4.6826230000000004</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>4.6818860000000004</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>4.4285990000000002</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5.7030510000000003</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>5.2932259999999998</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>5.3913349999999998</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>5.997503</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>4.4052119999999997</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>4.4024349999999997</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>4.5073780000000001</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.318295</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.71295</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4.6973710000000004</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>4.3296279999999996</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>5.3876520000000001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3.4879150000000001</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.923495</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>3.9968210000000002</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>4.11036</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>4.996238</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>4.3909039999999999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.238408</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.2248060000000001</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.807801</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.6128</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>5.2945469999999997</c:v>
+                  <c:v>-3.3844080000959993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3027,7 +3660,144 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B12E-0F4B-8B52-6DCE277BB5DE}"/>
+              <c16:uniqueId val="{00000002-9607-AF49-B65D-F1ECD7C6A1D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vx V.S. t'!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Worst Fit 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.7776465441819778E-2"/>
+                  <c:y val="-0.28456923836978887"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('vx V.S. t'!$I$7,'vx V.S. t'!$I$104)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.23333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vx V.S. t'!$K$14:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.8164829999040002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6156400000960005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9607-AF49-B65D-F1ECD7C6A1D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3392,6 +4162,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Test3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3508,8 +4309,579 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.17608119667492822"/>
-                  <c:y val="0.36493000874890646"/>
+                  <c:x val="0.11978902251897863"/>
+                  <c:y val="0.28613848613092363"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'vx V.S. t'!$M$7:$M$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1833333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21666669999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26666669999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.31666670000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36666670000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4166667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.43333329999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.46666669999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.48333330000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.51666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.53333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56666669999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.58333330000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.61666670000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.63333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66666669999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.68333330000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.71666669999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.73333329999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.76666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.78333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.81666669999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.83333330000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.86666670000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.91666669999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.93333330000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.96666669999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.98333329999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.016667</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0333330000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.066667</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0833330000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.1166670000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1333329999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1666669999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.183333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2166669999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.233333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.266667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vx V.S. t'!$N$7:$N$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>6.0772050000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8353809999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.685371</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4388209999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.049823</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6787539999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1671290000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3124120000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9693209999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4340950000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8221470000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.402336</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5457289999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.3020139999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.1548400000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.402336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2991789999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.8528950000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.7875529999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2004010000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.3919379999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.7102690000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.8962950000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.8258979999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.9863970000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.2101699999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.1714089999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.2980600000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.4501030000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.5162189999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.3516719999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.7282330000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.024718</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.016076</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.2669379999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.2740200000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.0938540000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.7187570000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.7951360000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.2793360000000007</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.42633</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.7622999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.7187400000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.4954789999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.9822670000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.1708289999999995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.354889999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.83259</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.989935</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.9052280000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.054360000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13.74878</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11.350479999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.6875910000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.666817</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.14438</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13.633789999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.2023989999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.8740260000000006</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10.02854</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.690630000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14.3729</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15.1046</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.2057</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15.18951</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13.92492</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13.52901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A6A3-4C40-8202-ED0E30BC71E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vx V.S. t'!$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Worst Fit 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12033224060787771"/>
+                  <c:y val="-0.39850313918900082"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3543,414 +4915,30 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'vx V.S. t'!$M$7:$M$72</c:f>
+              <c:f>('vx V.S. t'!$M$7,'vx V.S. t'!$M$74)</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1833333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21666669999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.23333329999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.26666669999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.28333330000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.31666670000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3333333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.36666670000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.38333329999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.4166667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.43333329999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.46666669999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.48333330000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.51666670000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.53333330000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.56666669999999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.58333330000000005</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.61666670000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.63333329999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.66666669999999995</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.68333330000000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.71666669999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.73333329999999997</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.76666670000000003</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.78333330000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.81666669999999997</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.83333330000000005</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.86666670000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.88333329999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.91666669999999995</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.93333330000000003</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.96666669999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.98333329999999997</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.016667</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.0333330000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.066667</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.0833330000000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.1166670000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.1333329999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.1499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.1666669999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.183333</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.2166669999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.233333</c:v>
+                  <c:v>1.266667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'vx V.S. t'!$N$7:$N$72</c:f>
+              <c:f>'vx V.S. t'!$O$10:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.0772050000000002</c:v>
+                  <c:v>12.077193000023998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8353809999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.685371</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4388209999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.049823</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.6787539999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.1671290000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.3124120000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.9693209999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.4340950000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.8221470000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.402336</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.5457289999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.3020139999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.1548400000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.402336</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.2991789999999996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.8528950000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.7875529999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.2004010000000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.3919379999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.7102690000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.8962950000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.8258979999999996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.9863970000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.2101699999999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.1714089999999997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.2980600000000004</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.4501030000000004</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.5162189999999995</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.3516719999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.7282330000000004</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.024718</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.016076</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.2669379999999997</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.2740200000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.0938540000000003</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.7187570000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.7951360000000003</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.2793360000000007</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10.42633</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8.7622999999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.7187400000000004</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7.4954789999999996</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.9822670000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>8.1708289999999995</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>11.354889999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>12.83259</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.989935</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6.9052280000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>11.054360000000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>13.74878</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>11.350479999999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>7.6875910000000003</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8.666817</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>13.14438</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>13.633789999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8.2023989999999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9.8740260000000006</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10.02854</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>11.631600000000001</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>15.690630000000001</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>14.3729</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>15.1046</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>14.2057</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>15.18951</c:v>
+                  <c:v>7.5290219999760017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3958,7 +4946,144 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A6A3-4C40-8202-ED0E30BC71E5}"/>
+              <c16:uniqueId val="{00000002-9455-A746-9AF2-E5902941D917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vx V.S. t'!$O$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Worst Fit 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11342222569351354"/>
+                  <c:y val="-0.186025122409094"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('vx V.S. t'!$M$7,'vx V.S. t'!$M$74)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.266667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vx V.S. t'!$O$14:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.7216999976002398E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.528998000023996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9455-A746-9AF2-E5902941D917}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21522,6 +22647,44 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="3.0000000000000006E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'dy V.S. t'!$A$7:$A$49</c:f>
@@ -22290,6 +23453,44 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="3.0000000000000006E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'dy V.S. t'!$E$7:$E$75</c:f>
@@ -23285,6 +24486,44 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="3.0000000000000006E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'dy V.S. t'!$I$7:$I$106</c:f>
@@ -24406,6 +25645,44 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="3.0000000000000006E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'dy V.S. t'!$M$7:$M$76</c:f>
@@ -25362,8 +26639,429 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.904239685916698E-2"/>
-                  <c:y val="0.23209346114344404"/>
+                  <c:x val="-2.2237532808398949E-2"/>
+                  <c:y val="0.2934815918280485"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="3.6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'vx V.S. t'!$A$7:$A$233</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="227"/>
+                <c:pt idx="0">
+                  <c:v>8.3333350000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1666665000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1666665000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10833334999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14166665000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15833334999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19166664999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20833335</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24166664999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25833335000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.29166665000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.30833335000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.34166664999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.35833334999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.39166665000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.40833335000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.44166664999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.45833334999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.49166664999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.50833335000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.54166665000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.55833335000000006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.59166665000000007</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.60833334999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.64166665000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.65833334999999993</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.69166664999999994</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vx V.S. t'!$B$7:$B$233</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="227"/>
+                <c:pt idx="0">
+                  <c:v>2.1614455677108864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9757911903164755</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2484215503156895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1235195752960876</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6773930709572267</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5113234977353018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5953488093023833</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4699878799515207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8298883402233139</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1307997384005239</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2016968067872265</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2328895342209321</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1755416489167043</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.04734618938476</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1368177263645447</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1347357305285435</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9656738626954464</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.309863380273244</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9237401525196871</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.097398389593558</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3122753754492495</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9287561424877115</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9305677222709041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1406157187685557</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0186959626080729</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9290677162708703</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1046157907684155</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8889162221675586</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0523322093288332</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4054551890896176</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9391361217277518</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.3647894591578487</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0242759514480824</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.9819160361679471</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.5415501662006403</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.3713752572495084</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.7129545740908414</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.5008700034800224</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.759514480971021</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.589774820450375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5484501938007691</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.291575416849172</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.8486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1BB7-B649-BE13-F76764462AAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vx V.S. t'!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Worst Fit 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.9415135608048997E-2"/>
+                  <c:y val="-0.52426133219834004"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -25397,137 +27095,14 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'vx V.S. t'!$A$7:$A$233</c:f>
+              <c:f>('vx V.S. t'!$A$7,'vx V.S. t'!$A$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="227"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>8.3333350000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.1666665000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.8333335E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.1666665000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.10833334999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.14166665000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.15833334999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.17499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.19166664999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.20833335</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.22499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.24166664999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25833335000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.27500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.29166665000000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.30833335000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.32500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.34166664999999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.35833334999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.39166665000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.40833335000000004</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.42499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.44166664999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.45833334999999997</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.47499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.49166664999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.50833335000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.52500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.54166665000000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.55833335000000006</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.57499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.59166665000000007</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.60833334999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.64166665000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.65833334999999993</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.67500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.69166664999999994</c:v>
-                </c:pt>
-                <c:pt idx="42">
                   <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -25535,138 +27110,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'vx V.S. t'!$B$7:$B$233</c:f>
+              <c:f>'vx V.S. t'!$C$10:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="227"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2.1614455677108864</c:v>
+                  <c:v>5.7614448477110294</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9757911903164755</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2484215503156895</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.1235195752960876</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6773930709572267</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5113234977353018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5953488093023833</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.4699878799515207</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.8298883402233139</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.1307997384005239</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.2016968067872265</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2328895342209321</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.1755416489167043</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.04734618938476</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.1368177263645447</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.1347357305285435</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.9656738626954464</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.309863380273244</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.9237401525196871</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.097398389593558</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.3122753754492495</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.9287561424877115</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.9305677222709041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.1406157187685557</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.0186959626080729</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.9290677162708703</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.1046157907684155</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.8889162221675586</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.0523322093288332</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.4054551890896176</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.9391361217277518</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.3647894591578487</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.0242759514480824</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.9819160361679471</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.5415501662006403</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.3713752572495084</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.7129545740908414</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.5008700034800224</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.759514480971021</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.589774820450375</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.5484501938007691</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.291575416849172</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.8486</c:v>
+                  <c:v>-1.7513992800001434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25674,7 +27126,144 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1BB7-B649-BE13-F76764462AAD}"/>
+              <c16:uniqueId val="{00000002-BE7A-4344-8F9D-EFBB46B6166D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vx V.S. t'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Worst Fit 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.2489372551589059E-2"/>
+                  <c:y val="-0.21437315822525643"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('vx V.S. t'!$A$7,'vx V.S. t'!$A$49)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.3333350000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'vx V.S. t'!$C$14:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-1.4385537122892571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4485992800001437</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BE7A-4344-8F9D-EFBB46B6166D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -41110,8 +42699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461A7755-E4F4-3444-9B01-2D92C83B7B98}">
   <dimension ref="A3:AA233"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="164" zoomScaleNormal="263" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="86" zoomScaleNormal="263" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44008,8 +45597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A56EA31-C221-014A-AB1B-BE6E6AA79FE0}">
   <dimension ref="A3:O233"/>
   <sheetViews>
-    <sheetView zoomScale="57" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46904,8 +48493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C87EDB6-C669-EA4E-B56E-03421DD9E6D7}">
   <dimension ref="A3:O233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47064,12 +48653,17 @@
       <c r="B9" s="4">
         <v>2.2484215503156895</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="1">
         <v>0.23333329999999999</v>
       </c>
       <c r="F9" s="1">
         <v>6.3551450000000003</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
@@ -47078,7 +48672,9 @@
       <c r="J9" s="1">
         <v>6.1649529999999997</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
         <v>0.1833333</v>
@@ -47086,6 +48682,9 @@
       <c r="N9" s="1">
         <v>5.685371</v>
       </c>
+      <c r="O9" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
@@ -47094,12 +48693,19 @@
       <c r="B10" s="4">
         <v>2.1235195752960876</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <f>B7+C7</f>
+        <v>5.7614448477110294</v>
+      </c>
       <c r="E10" s="1">
         <v>0.25</v>
       </c>
       <c r="F10" s="1">
         <v>8.4204640000000008</v>
+      </c>
+      <c r="G10" s="1">
+        <f>F7+G7</f>
+        <v>12.245874000023997</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
@@ -47108,7 +48714,10 @@
       <c r="J10" s="1">
         <v>6.2730620000000004</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1">
+        <f>J7+K7</f>
+        <v>12.816531000095999</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
         <v>0.2</v>
@@ -47116,6 +48725,10 @@
       <c r="N10" s="1">
         <v>5.4388209999999999</v>
       </c>
+      <c r="O10" s="1">
+        <f>N7+O7</f>
+        <v>12.077193000023998</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
@@ -47124,12 +48737,19 @@
       <c r="B11" s="4">
         <v>2.6773930709572267</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <f>B49-C7</f>
+        <v>-1.7513992800001434</v>
+      </c>
       <c r="E11" s="1">
         <v>0.26666669999999998</v>
       </c>
       <c r="F11" s="1">
         <v>7.4983269999999997</v>
+      </c>
+      <c r="G11" s="1">
+        <f>F71-G7</f>
+        <v>6.9370519999760019</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1">
@@ -47138,7 +48758,10 @@
       <c r="J11" s="1">
         <v>5.8757679999999999</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1">
+        <f>J104-K7</f>
+        <v>-3.3844080000959993</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1">
         <v>0.21666669999999999</v>
@@ -47146,6 +48769,10 @@
       <c r="N11" s="1">
         <v>5.049823</v>
       </c>
+      <c r="O11" s="1">
+        <f>N74-O7</f>
+        <v>7.5290219999760017</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
@@ -47161,6 +48788,7 @@
       <c r="F12" s="1">
         <v>6.6294060000000004</v>
       </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1">
         <v>0.31666670000000002</v>
@@ -47176,6 +48804,7 @@
       <c r="N12" s="1">
         <v>5.6787539999999996</v>
       </c>
+      <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
@@ -47184,12 +48813,17 @@
       <c r="B13" s="4">
         <v>2.5953488093023833</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" s="1">
         <v>0.3</v>
       </c>
       <c r="F13" s="1">
         <v>5.9732229999999999</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1">
@@ -47198,7 +48832,9 @@
       <c r="J13" s="1">
         <v>7.1691029999999998</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
         <v>0.25</v>
@@ -47206,6 +48842,9 @@
       <c r="N13" s="1">
         <v>6.1671290000000001</v>
       </c>
+      <c r="O13" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -47214,12 +48853,19 @@
       <c r="B14" s="4">
         <v>2.4699878799515207</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <f>B7-C7</f>
+        <v>-1.4385537122892571</v>
+      </c>
       <c r="E14" s="1">
         <v>0.31666670000000002</v>
       </c>
       <c r="F14" s="1">
         <v>4.6719549999999996</v>
+      </c>
+      <c r="G14" s="1">
+        <f>F7-G7</f>
+        <v>0.24589799997600181</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1">
@@ -47228,7 +48874,10 @@
       <c r="J14" s="1">
         <v>3.0965259999999999</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1">
+        <f>J7-K7</f>
+        <v>0.8164829999040002</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
         <v>0.26666669999999998</v>
@@ -47236,6 +48885,10 @@
       <c r="N14" s="1">
         <v>6.3124120000000001</v>
       </c>
+      <c r="O14" s="1">
+        <f>N7-O7</f>
+        <v>7.7216999976002398E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
@@ -47244,12 +48897,19 @@
       <c r="B15" s="4">
         <v>1.8298883402233139</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <f>B49+C7</f>
+        <v>5.4485992800001437</v>
+      </c>
       <c r="E15" s="1">
         <v>0.3333333</v>
       </c>
       <c r="F15" s="1">
         <v>5.9218849999999996</v>
+      </c>
+      <c r="G15" s="1">
+        <f>F71+G7</f>
+        <v>18.937028000023997</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1">
@@ -47258,13 +48918,20 @@
       <c r="J15" s="1">
         <v>4.7759539999999996</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1">
+        <f>J104+K7</f>
+        <v>8.6156400000960005</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
         <v>0.28333330000000001</v>
       </c>
       <c r="N15" s="1">
         <v>5.9693209999999999</v>
+      </c>
+      <c r="O15" s="1">
+        <f>N74+O7</f>
+        <v>19.528998000023996</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -49774,8 +51441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E4BC96-86D1-2143-B2F9-26F0F93E587C}">
   <dimension ref="A3:W233"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Format Lab Result.xlsx
+++ b/Format Lab Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiucheng/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D3CC22-7627-9E40-9E47-E1F87C573EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21DC5DC-F5D3-E54D-AA51-8E5EE8AC2148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34600" windowHeight="21580" activeTab="1" xr2:uid="{601409D2-94AD-2040-8B45-B65981BDA1FF}"/>
+    <workbookView xWindow="8720" yWindow="7480" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{601409D2-94AD-2040-8B45-B65981BDA1FF}"/>
   </bookViews>
   <sheets>
     <sheet name="dx V.S. t" sheetId="5" r:id="rId1"/>
@@ -271,10 +271,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+              <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Compare</a:t>
+              <a:t>Expected</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
+              <a:t> </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
@@ -5466,8 +5470,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Expected</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Compare </a:t>
+              <a:t> </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -22496,19 +22510,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+              <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Compare</a:t>
+              <a:t>Expected</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
               <a:t> </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -26507,10 +26518,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
+              <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Compare</a:t>
+              <a:t>Expected</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
+              <a:t> </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" cap="none" baseline="0"/>
@@ -45597,8 +45612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A56EA31-C221-014A-AB1B-BE6E6AA79FE0}">
   <dimension ref="A3:O233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView topLeftCell="D3" zoomScale="113" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48493,7 +48508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C87EDB6-C669-EA4E-B56E-03421DD9E6D7}">
   <dimension ref="A3:O233"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
@@ -51441,8 +51456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E4BC96-86D1-2143-B2F9-26F0F93E587C}">
   <dimension ref="A3:W233"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
